--- a/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33446AA4-351D-4B03-A576-8481D70A4345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB8E4B3-8FBC-43BE-AD07-6C5A5EBB892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A15C9459-AB47-4EB9-94AE-57880B7A223C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio 3_captaciones2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="13">
   <si>
     <t>time</t>
   </si>
@@ -71,12 +57,20 @@
   <si>
     <t>I</t>
   </si>
+  <si>
+    <t>percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,18 +80,314 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,33 +396,208 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,3282 +908,4442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0454E7D2-FB9F-4F4E-BBB2-83E465F23B48}">
-  <dimension ref="A1:C316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D295" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1986</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>11369185</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="D2" s="3">
+        <f>B2/$B$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1986</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1698097</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D10" si="0">B3/$B$2</f>
+        <v>0.14935960669124479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1986</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1986</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1986</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>431105</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7918725044935056E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1986</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>126767</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1150051652778981E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1986</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4750733</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41786047108917657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1986</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4362483</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38371114552186458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1986</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1987</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>26524403</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="D11" s="3">
+        <f>B11/$B$11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3220469</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D19" si="1">B12/$B$11</f>
+        <v>0.12141532459750366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1987</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1987</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>1987</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>735144</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.771576046405267E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1987</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>133902</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0482568825394487E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1987</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>11690218</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44073444367437792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1987</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>10744670</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40508621438152631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1987</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1988</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>51434456</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="D20" s="3">
+        <f>B20/$B$20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1988</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>6433444</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="D21" s="3">
+        <f t="shared" ref="D21:D28" si="2">B21/$B$20</f>
+        <v>0.12508043246340547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1988</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1988</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1988</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1204757</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3423150426632296E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1988</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>118788</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.309502408268885E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>1988</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2995850</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8245974255079123E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1988</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>40681617</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="D27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79094094044661423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1988</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="D28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1989</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>152513081</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="D29" s="3">
+        <f>B29/$B$29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>1989</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>6948241</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D37" si="3">B30/$B$29</f>
+        <v>4.5558328206614616E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>1989</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="D31" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1989</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="D32" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>1989</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>1230254</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="D33" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0665474196275656E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>1989</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>66249</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="D34" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3438241208962266E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>1989</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>224029</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="D35" s="3">
+        <f t="shared" si="3"/>
+        <v>1.468916623617354E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>1989</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>18623097</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12210819477183076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>1989</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>63141604</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="D37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.41400779255125009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>1990</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>202778373</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="D38" s="3">
+        <f>B38/$B$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>1990</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>12566921</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="D39" s="3">
+        <f t="shared" ref="D39:D46" si="4">B39/$B$38</f>
+        <v>6.1973675072341174E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>1990</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="D40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>1990</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="D41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>1990</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>1427341</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="D42" s="3">
+        <f t="shared" si="4"/>
+        <v>7.0389212561637431E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>1990</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>66641</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="D43" s="3">
+        <f t="shared" si="4"/>
+        <v>3.2863958327548074E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>1990</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>105006</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="D44" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1783628819233104E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>1990</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>66203971</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="D45" s="3">
+        <f t="shared" si="4"/>
+        <v>0.32648437809489672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>1990</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>75077823</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="D46" s="3">
+        <f t="shared" si="4"/>
+        <v>0.37024571155820446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>1991</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>261373196</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="D47" s="3">
+        <f>B47/$B$47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>1991</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>24698833</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="D48" s="3">
+        <f t="shared" ref="D48:D55" si="5">B48/$B$47</f>
+        <v>9.4496426481313719E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>1991</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="D49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>1991</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="D50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>1991</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>1839486</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="D51" s="3">
+        <f t="shared" si="5"/>
+        <v>7.0377759776101912E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>1991</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>69368</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="D52" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6539829279204286E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>1991</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>937389</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="D53" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5864006498967857E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>1991</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>119252767</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="D54" s="3">
+        <f t="shared" si="5"/>
+        <v>0.45625476837341805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>1991</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>76901985</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="D55" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29422292024159968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>1992</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>346190586</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="D56" s="3">
+        <f>B56/$B$56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>1992</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>71474147</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="D57" s="3">
+        <f t="shared" ref="D57:D64" si="6">B57/$B$56</f>
+        <v>0.20645895610806703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>1992</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="D58" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>1992</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="D59" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>1992</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>2000801</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="D60" s="3">
+        <f t="shared" si="6"/>
+        <v>5.7794783593566584E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>1992</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>19588955</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="D61" s="3">
+        <f t="shared" si="6"/>
+        <v>5.6584308736806609E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>1992</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>3287405</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="D62" s="3">
+        <f t="shared" si="6"/>
+        <v>9.4959399040388699E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>1992</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>108066648</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="D63" s="3">
+        <f t="shared" si="6"/>
+        <v>0.31215940689964344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>1992</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>76901985</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="D64" s="3">
+        <f t="shared" si="6"/>
+        <v>0.22213771289552051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>1993</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>327436947</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
+      <c r="D65" s="3">
+        <f>B65/$B$65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>1993</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>86918082</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
+      <c r="D66" s="3">
+        <f t="shared" ref="D66:D73" si="7">B66/$B$65</f>
+        <v>0.26544983025388397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>1993</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
+      <c r="D67" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>1993</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
+      <c r="D68" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>1993</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>1851878</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
+      <c r="D69" s="3">
+        <f t="shared" si="7"/>
+        <v>5.6556781907693516E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>1993</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>13271649</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="D70" s="3">
+        <f t="shared" si="7"/>
+        <v>4.0531922623869322E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>1993</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>17742713</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
+      <c r="D71" s="3">
+        <f t="shared" si="7"/>
+        <v>5.4186655362383401E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>1993</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>142071309</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
+      <c r="D72" s="3">
+        <f t="shared" si="7"/>
+        <v>0.43388905956296986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1993</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>63775236</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="D73" s="3">
+        <f t="shared" si="7"/>
+        <v>0.19477104396529815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>1994</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>372607871</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
+      <c r="D74" s="3">
+        <f>B74/$B$74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>1994</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>92181142</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
+      <c r="D75" s="3">
+        <f t="shared" ref="D75:D82" si="8">B75/$B$74</f>
+        <v>0.24739451089051204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>1994</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
+      <c r="D76" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>1994</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
+      <c r="D77" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>1994</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>1939862</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
+      <c r="D78" s="3">
+        <f t="shared" si="8"/>
+        <v>5.2061755829092508E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>1994</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>10267173</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
+      <c r="D79" s="3">
+        <f t="shared" si="8"/>
+        <v>2.755490100744544E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>1994</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>22384722</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="D80" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0075816272812978E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>1994</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>164993870</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
+      <c r="D81" s="3">
+        <f t="shared" si="8"/>
+        <v>0.44280833240905959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>1994</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>78249364</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="D82" s="3">
+        <f t="shared" si="8"/>
+        <v>0.21000459220036174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>1995</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>497668141</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="D83" s="3">
+        <f>B83/$B$83</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>1995</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>68052758</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="D84" s="3">
+        <f t="shared" ref="D84:D91" si="9">B84/$B$83</f>
+        <v>0.13674324794682807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>1995</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="D85" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>1995</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
+      <c r="D86" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>1995</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>1500933</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
+      <c r="D87" s="3">
+        <f t="shared" si="9"/>
+        <v>3.01593145380789E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>1995</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>6669342</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
+      <c r="D88" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3401183339963889E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>1995</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>35380038</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
+      <c r="D89" s="3">
+        <f t="shared" si="9"/>
+        <v>7.1091627301897151E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>1995</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>267243517</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
+      <c r="D90" s="3">
+        <f t="shared" si="9"/>
+        <v>0.53699141050702703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>1995</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>114787501</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
+      <c r="D91" s="3">
+        <f t="shared" si="9"/>
+        <v>0.23065069178298073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>1996</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>677889632</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
+      <c r="D92" s="3">
+        <f>B92/$B$92</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>1996</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>101296923</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
+      <c r="D93" s="3">
+        <f t="shared" ref="D93:D100" si="10">B93/$B$92</f>
+        <v>0.14942981603235378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>1996</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
+      <c r="D94" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>1996</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
+      <c r="D95" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>1996</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>1490525</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
+      <c r="D96" s="3">
+        <f t="shared" si="10"/>
+        <v>2.1987723806933812E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>1996</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>9311428</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
+      <c r="D97" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3735905611254429E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>1996</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>40998601</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
+      <c r="D98" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0479758156265766E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>1996</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>320838217</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
+      <c r="D99" s="3">
+        <f t="shared" si="10"/>
+        <v>0.47328975375153692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>1996</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>198390207</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
+      <c r="D100" s="3">
+        <f t="shared" si="10"/>
+        <v>0.29265856510400207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>1997</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>929027606</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
+      <c r="D101" s="3">
+        <f>B101/$B$101</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>1997</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>170504288</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
+      <c r="D102" s="3">
+        <f t="shared" ref="D102:D109" si="11">B102/$B$101</f>
+        <v>0.18352984012404042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>1997</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
+      <c r="D103" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>1997</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
+      <c r="D104" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>1997</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>1588918</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
+      <c r="D105" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7103022447752753E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>1997</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>9670659</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
+      <c r="D106" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0409442020391372E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>1997</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>60829293</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
+      <c r="D107" s="3">
+        <f t="shared" si="11"/>
+        <v>6.5476302972206829E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>1997</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>393294974</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
+      <c r="D108" s="3">
+        <f t="shared" si="11"/>
+        <v>0.42334045991739883</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>1997</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>293139474</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
+      <c r="D109" s="3">
+        <f t="shared" si="11"/>
+        <v>0.31553365272118727</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>1998</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>1093395786</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
+      <c r="D110" s="3">
+        <f>B110/$B$110</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>1998</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>208962906</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
+      <c r="D111" s="3">
+        <f t="shared" ref="D111:D118" si="12">B111/$B$110</f>
+        <v>0.19111369247585522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>1998</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
+      <c r="D112" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>1998</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
+      <c r="D113" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>1998</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>1271936</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
+      <c r="D114" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1632896488957202E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>1998</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>4110777</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
+      <c r="D115" s="3">
+        <f t="shared" si="12"/>
+        <v>3.7596422563860145E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>1998</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>91272512</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
+      <c r="D116" s="3">
+        <f t="shared" si="12"/>
+        <v>8.3476187825732115E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>1998</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>461912541</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
+      <c r="D117" s="3">
+        <f t="shared" si="12"/>
+        <v>0.42245685131989341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>1998</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>325865114</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
+      <c r="D118" s="3">
+        <f t="shared" si="12"/>
+        <v>0.29803033647323751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>1999</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>1383928272</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
+      <c r="D119" s="3">
+        <f>B119/$B$119</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>1999</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>234115180</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
+      <c r="D120" s="3">
+        <f t="shared" ref="D120:D127" si="13">B120/$B$119</f>
+        <v>0.16916713440767109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>1999</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
+      <c r="D121" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>1999</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
+      <c r="D122" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>1999</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>1183348</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
+      <c r="D123" s="3">
+        <f t="shared" si="13"/>
+        <v>8.5506454629319113E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>1999</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>4870835</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
+      <c r="D124" s="3">
+        <f t="shared" si="13"/>
+        <v>3.5195718582733022E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>1999</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>115214678</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
+      <c r="D125" s="3">
+        <f t="shared" si="13"/>
+        <v>8.3251914373781932E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>1999</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>594620571</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
+      <c r="D126" s="3">
+        <f t="shared" si="13"/>
+        <v>0.42966140878145165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>1999</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>433923660</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
+      <c r="D127" s="3">
+        <f t="shared" si="13"/>
+        <v>0.31354490603252883</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>2000</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>1640195871</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
+      <c r="D128" s="3">
+        <f>B128/$B$128</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>2000</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>289186162</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
+      <c r="D129" s="3">
+        <f t="shared" ref="D129:D136" si="14">B129/$B$128</f>
+        <v>0.1763119680478698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>2000</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="1" t="s">
+      <c r="C130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
+      <c r="D130" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>2000</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
+      <c r="D131" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>2000</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>1329692</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
+      <c r="D132" s="3">
+        <f t="shared" si="14"/>
+        <v>8.1069098118708772E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>2000</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>4791264</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
+      <c r="D133" s="3">
+        <f t="shared" si="14"/>
+        <v>2.9211535553243691E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>2000</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>119048680</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
+      <c r="D134" s="3">
+        <f t="shared" si="14"/>
+        <v>7.258198981284962E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>2000</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>581986031</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
+      <c r="D135" s="3">
+        <f t="shared" si="14"/>
+        <v>0.35482715283582128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>2000</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>643854042</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
+      <c r="D136" s="3">
+        <f t="shared" si="14"/>
+        <v>0.39254704476694785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>2001</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>1019963134</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
+      <c r="D137" s="3">
+        <f>B137/$B$137</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>2001</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>326409070</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
+      <c r="D138" s="3">
+        <f t="shared" ref="D138:D145" si="15">B138/$B$137</f>
+        <v>0.32002045870022594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>2001</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
+      <c r="D139" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>2001</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
+      <c r="D140" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>2001</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>1428025</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
+      <c r="D141" s="3">
+        <f t="shared" si="15"/>
+        <v>1.4000751129108946E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>2001</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>4327153</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
+      <c r="D142" s="3">
+        <f t="shared" si="15"/>
+        <v>4.2424601985663534E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>2001</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>62917001</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
+      <c r="D143" s="3">
+        <f t="shared" si="15"/>
+        <v>6.1685563823525413E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>2001</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>624881885</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
+      <c r="D144" s="3">
+        <f t="shared" si="15"/>
+        <v>0.61265144216477141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>2001</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>822067206</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1">
+      <c r="D145" s="3">
+        <f t="shared" si="15"/>
+        <v>0.80597737172724127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>2002</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>2056305082</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1">
+      <c r="D146" s="3">
+        <f>B146/$B$146</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>2002</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>395903100</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1">
+      <c r="D147" s="3">
+        <f t="shared" ref="D147:D154" si="16">B147/$B$146</f>
+        <v>0.19253130455473921</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>2002</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
+      <c r="D148" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>2002</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1">
+      <c r="D149" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>2002</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>1494507</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1">
+      <c r="D150" s="3">
+        <f t="shared" si="16"/>
+        <v>7.2679244586917771E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>2002</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>2698752</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1">
+      <c r="D151" s="3">
+        <f t="shared" si="16"/>
+        <v>1.3124278219334771E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>2002</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>31898752</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
+      <c r="D152" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5512655334671784E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>2002</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>581090088</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
+      <c r="D153" s="3">
+        <f t="shared" si="16"/>
+        <v>0.28258943339031245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>2002</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>1043219883</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1">
+      <c r="D154" s="3">
+        <f t="shared" si="16"/>
+        <v>0.50732738645247388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>2003</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>1655431029</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1">
+      <c r="D155" s="3">
+        <f>B155/$B$155</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>2003</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>453499837</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
+      <c r="D156" s="3">
+        <f t="shared" ref="D156:D163" si="17">B156/$B$155</f>
+        <v>0.2739466815926162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>2003</v>
       </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1">
+      <c r="D157" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>2003</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1">
+      <c r="D158" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>2003</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>2971116</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
+      <c r="D159" s="3">
+        <f t="shared" si="17"/>
+        <v>1.7947688233165284E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>2003</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>2882193</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
+      <c r="D160" s="3">
+        <f t="shared" si="17"/>
+        <v>1.7410529037510266E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>2003</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>49938323</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1">
+      <c r="D161" s="3">
+        <f t="shared" si="17"/>
+        <v>3.0166356752516808E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>2003</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>564663903</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1">
+      <c r="D162" s="3">
+        <f t="shared" si="17"/>
+        <v>0.34109781265915851</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>2003</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>581475657</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
+      <c r="D163" s="3">
+        <f t="shared" si="17"/>
+        <v>0.35125332726864095</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>2004</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>1957810529</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
+      <c r="D164" s="3">
+        <f>B164/$B$164</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>2004</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>422727174</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
+      <c r="D165" s="3">
+        <f t="shared" ref="D165:D172" si="18">B165/$B$164</f>
+        <v>0.21591832699761723</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>2004</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="1" t="s">
+      <c r="C166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1">
+      <c r="D166" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>2004</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>121490624</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1">
+      <c r="D167" s="3">
+        <f t="shared" si="18"/>
+        <v>6.2054331714139023E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>2004</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>5891522</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
+      <c r="D168" s="3">
+        <f t="shared" si="18"/>
+        <v>3.0092401244819333E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>2004</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1">
+      <c r="D169" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>2004</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="1">
         <v>657655348</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
+      <c r="D170" s="3">
+        <f t="shared" si="18"/>
+        <v>0.33591368432159452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>2004</v>
       </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="1" t="s">
+      <c r="C171" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
+      <c r="D171" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>2004</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="1">
         <v>750045861</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
+      <c r="D172" s="3">
+        <f t="shared" si="18"/>
+        <v>0.38310441684216728</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>2005</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="1">
         <v>2067807173</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
+      <c r="D173" s="3">
+        <f>B173/$B$173</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>2005</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="1">
         <v>470005261</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
+      <c r="D174" s="3">
+        <f t="shared" ref="D174:D181" si="19">B174/$B$173</f>
+        <v>0.22729646513321192</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>2005</v>
       </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
+      <c r="D175" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>2005</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="1">
         <v>141313081</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
+      <c r="D176" s="3">
+        <f t="shared" si="19"/>
+        <v>6.8339583518796515E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>2005</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="1">
         <v>1930300</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
+      <c r="D177" s="3">
+        <f t="shared" si="19"/>
+        <v>9.3350096914476658E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>2005</v>
       </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="1" t="s">
+      <c r="C178" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
+      <c r="D178" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>2005</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1">
         <v>653588798</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
+      <c r="D179" s="3">
+        <f t="shared" si="19"/>
+        <v>0.31607821393315189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>2005</v>
       </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="1" t="s">
+      <c r="C180" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
+      <c r="D180" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>2005</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="1">
         <v>800969734</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
+      <c r="D181" s="3">
+        <f t="shared" si="19"/>
+        <v>0.38735223692929904</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>2006</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="1">
         <v>2243224924</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
+      <c r="D182" s="3">
+        <f>B182/$B$182</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>2006</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="1">
         <v>565113627</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
+      <c r="D183" s="3">
+        <f t="shared" ref="D183:D190" si="20">B183/$B$182</f>
+        <v>0.25192018016290552</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>2006</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>164587452</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
+      <c r="D184" s="3">
+        <f t="shared" si="20"/>
+        <v>7.3370909104610138E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>2006</v>
       </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="1" t="s">
+      <c r="C185" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
+      <c r="D185" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>2006</v>
       </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="1" t="s">
+      <c r="C186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
+      <c r="D186" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>2006</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="1" t="s">
+      <c r="C187" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
+      <c r="D187" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>2006</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="1">
         <v>662587104</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
+      <c r="D188" s="3">
+        <f t="shared" si="20"/>
+        <v>0.29537256692855823</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>2006</v>
       </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
+      <c r="D189" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>2006</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="1">
         <v>850936741</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
+      <c r="D190" s="3">
+        <f t="shared" si="20"/>
+        <v>0.37933634380392611</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>2007</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="1">
         <v>2495342297</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
+      <c r="D191" s="3">
+        <f>B191/$B$191</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>2007</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="1">
         <v>617414591</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
+      <c r="D192" s="3">
+        <f t="shared" ref="D192:D199" si="21">B192/$B$191</f>
+        <v>0.24742681264301111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>2007</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="1">
         <v>186831463</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
+      <c r="D193" s="3">
+        <f t="shared" si="21"/>
+        <v>7.4872077960853795E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>2007</v>
       </c>
-      <c r="B194" s="2"/>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
+      <c r="D194" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
         <v>2007</v>
       </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
+      <c r="D195" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>2007</v>
       </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
+      <c r="D196" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>2007</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="1">
         <v>660815060</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
+      <c r="D197" s="3">
+        <f t="shared" si="21"/>
+        <v>0.26481940405308652</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>2007</v>
       </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="1" t="s">
+      <c r="C198" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
+      <c r="D198" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>2007</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>1030281183</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
+      <c r="D199" s="3">
+        <f t="shared" si="21"/>
+        <v>0.41288170534304858</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>2008</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="1">
         <v>2836236419.73</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
+      <c r="D200" s="3">
+        <f>B200/$B$200</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>2008</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="1">
         <v>694725908</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
+      <c r="D201" s="3">
+        <f t="shared" ref="D201:D208" si="22">B201/$B$200</f>
+        <v>0.24494640262257669</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>2008</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="1">
         <v>194789342</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
+      <c r="D202" s="3">
+        <f t="shared" si="22"/>
+        <v>6.8678809934519941E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>2008</v>
       </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="1" t="s">
+      <c r="C203" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
+      <c r="D203" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>2008</v>
       </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="1" t="s">
+      <c r="C204" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
+      <c r="D204" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>2008</v>
       </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="1" t="s">
+      <c r="C205" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
+      <c r="D205" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>2008</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="1">
         <v>844439880</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
+      <c r="D206" s="3">
+        <f t="shared" si="22"/>
+        <v>0.29773254236696806</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>2008</v>
       </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="1" t="s">
+      <c r="C207" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
+      <c r="D207" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>2008</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="1">
         <v>1102281289.73</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
+      <c r="D208" s="3">
+        <f t="shared" si="22"/>
+        <v>0.38864224507593531</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>2009</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="1">
         <v>3063766715.4699998</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
+      <c r="D209" s="3">
+        <f>B209/$B$209</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>2009</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="1">
         <v>745939568</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
+      <c r="D210" s="3">
+        <f t="shared" ref="D210:D217" si="23">B210/$B$209</f>
+        <v>0.24347139886124408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>2009</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="1">
         <v>224007104</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
+      <c r="D211" s="3">
+        <f t="shared" si="23"/>
+        <v>7.3114934916197097E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>2009</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="1" t="s">
+      <c r="C212" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
+      <c r="D212" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>2009</v>
       </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="1" t="s">
+      <c r="C213" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
+      <c r="D213" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>2009</v>
       </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="1" t="s">
+      <c r="C214" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
+      <c r="D214" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>2009</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="1">
         <v>901607102</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
+      <c r="D215" s="3">
+        <f t="shared" si="23"/>
+        <v>0.29428059827384351</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>2009</v>
       </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="1" t="s">
+      <c r="C216" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
+      <c r="D216" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>2009</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="1">
         <v>1192212941.47</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
+      <c r="D217" s="3">
+        <f t="shared" si="23"/>
+        <v>0.38913306794871538</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>2010</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1">
         <v>2913188177.9099998</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
+      <c r="D218" s="3">
+        <f>B218/$B$218</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>2010</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="1">
         <v>824785442.74000001</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
+      <c r="D219" s="3">
+        <f t="shared" ref="D219:D226" si="24">B219/$B$218</f>
+        <v>0.28312123775393166</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>2010</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="1">
         <v>256244825.59</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
+      <c r="D220" s="3">
+        <f t="shared" si="24"/>
+        <v>8.7960272368617462E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>2010</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="1" t="s">
+      <c r="C221" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
+      <c r="D221" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>2010</v>
       </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="1" t="s">
+      <c r="C222" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
+      <c r="D222" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>2010</v>
       </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="1" t="s">
+      <c r="C223" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
+      <c r="D223" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>2010</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="1">
         <v>891579886.21000004</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
+      <c r="D224" s="3">
+        <f t="shared" si="24"/>
+        <v>0.30604953465438117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
         <v>2010</v>
       </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="1" t="s">
+      <c r="C225" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
+      <c r="D225" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
         <v>2010</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="1">
         <v>940578023.37</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
+      <c r="D226" s="3">
+        <f t="shared" si="24"/>
+        <v>0.3228689552230698</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
         <v>2011</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="1">
         <v>3091156254.5100002</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
+      <c r="D227" s="3">
+        <f>B227/$B$227</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
         <v>2011</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="1">
         <v>1006176029.86</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
+      <c r="D228" s="3">
+        <f t="shared" ref="D228:D235" si="25">B228/$B$227</f>
+        <v>0.32550151044353975</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
         <v>2011</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="1">
         <v>295974712.80000001</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
+      <c r="D229" s="3">
+        <f t="shared" si="25"/>
+        <v>9.5748868200425843E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
         <v>2011</v>
       </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1" t="s">
+      <c r="C230" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
+      <c r="D230" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
         <v>2011</v>
       </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1" t="s">
+      <c r="C231" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1">
+      <c r="D231" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
         <v>2011</v>
       </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="1" t="s">
+      <c r="C232" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1">
+      <c r="D232" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
         <v>2011</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="1">
         <v>888451879.13</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1">
+      <c r="D233" s="3">
+        <f t="shared" si="25"/>
+        <v>0.28741733059716662</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
         <v>2011</v>
       </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="1" t="s">
+      <c r="C234" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1">
+      <c r="D234" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
         <v>2011</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="1">
         <v>900553632.73000002</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1">
+      <c r="D235" s="3">
+        <f t="shared" si="25"/>
+        <v>0.29133229076210282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
         <v>2012</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="1">
         <v>3294710364.0599999</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1">
+      <c r="D236" s="3">
+        <f>B236/$B$236</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>2012</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="1">
         <v>1172127631.0799999</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1">
+      <c r="D237" s="3">
+        <f t="shared" ref="D237:D244" si="26">B237/$B$236</f>
+        <v>0.35576044676522417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>2012</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="1">
         <v>350636007.38999999</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1">
+      <c r="D238" s="3">
+        <f t="shared" si="26"/>
+        <v>0.10642392460802498</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>2012</v>
       </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="1" t="s">
+      <c r="C239" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1">
+      <c r="D239" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
         <v>2012</v>
       </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="1" t="s">
+      <c r="C240" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1">
+      <c r="D240" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
         <v>2012</v>
       </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="1" t="s">
+      <c r="C241" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1">
+      <c r="D241" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
         <v>2012</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="1">
         <v>905516659.46000004</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1">
+      <c r="D242" s="3">
+        <f t="shared" si="26"/>
+        <v>0.27483953349518453</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>2012</v>
       </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="1" t="s">
+      <c r="C243" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1">
+      <c r="D243" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
         <v>2012</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="1">
         <v>866430066.13</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1">
+      <c r="D244" s="3">
+        <f t="shared" si="26"/>
+        <v>0.26297609513156628</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>2013</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="1">
         <v>3592028691.0500002</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1">
+      <c r="D245" s="3">
+        <f>B245/$B$245</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
         <v>2013</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="1">
         <v>1197413951.3699999</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1">
+      <c r="D246" s="3">
+        <f t="shared" ref="D246:D253" si="27">B246/$B$245</f>
+        <v>0.33335311445409949</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
         <v>2013</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="1">
         <v>391314328.19</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1">
+      <c r="D247" s="3">
+        <f t="shared" si="27"/>
+        <v>0.10893964437561698</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
         <v>2013</v>
       </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="1" t="s">
+      <c r="C248" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1">
+      <c r="D248" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
         <v>2013</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="1" t="s">
+      <c r="C249" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1">
+      <c r="D249" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
         <v>2013</v>
       </c>
-      <c r="B250" s="2"/>
-      <c r="C250" s="1" t="s">
+      <c r="C250" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1">
+      <c r="D250" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
         <v>2013</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="1">
         <v>961672987.66999996</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1">
+      <c r="D251" s="3">
+        <f t="shared" si="27"/>
+        <v>0.26772419442699091</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
         <v>2013</v>
       </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="1" t="s">
+      <c r="C252" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="1">
+      <c r="D252" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
         <v>2013</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="1">
         <v>1041627423.8200001</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1">
+      <c r="D253" s="3">
+        <f t="shared" si="27"/>
+        <v>0.28998304674329251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
         <v>2014</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="1">
         <v>3933851881.5300002</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1">
+      <c r="D254" s="3">
+        <f>B254/$B$254</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
         <v>2014</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="1">
         <v>1366289537.5999999</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1">
+      <c r="D255" s="3">
+        <f t="shared" ref="D255:D262" si="28">B255/$B$254</f>
+        <v>0.34731595869557913</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
         <v>2014</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="1">
         <v>430550261.24000001</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1">
+      <c r="D256" s="3">
+        <f t="shared" si="28"/>
+        <v>0.10944750189032164</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
         <v>2014</v>
       </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="1" t="s">
+      <c r="C257" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1">
+      <c r="D257" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
         <v>2014</v>
       </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="1" t="s">
+      <c r="C258" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1">
+      <c r="D258" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
         <v>2014</v>
       </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="1" t="s">
+      <c r="C259" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1">
+      <c r="D259" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
         <v>2014</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="1">
         <v>983635069.75</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1">
+      <c r="D260" s="3">
+        <f t="shared" si="28"/>
+        <v>0.25004374830895593</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
         <v>2014</v>
       </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="1" t="s">
+      <c r="C261" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="1">
+      <c r="D261" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
         <v>2014</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="1">
         <v>1153377012.9400001</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="1">
+      <c r="D262" s="3">
+        <f t="shared" si="28"/>
+        <v>0.29319279110514324</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
         <v>2015</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="1">
         <v>4173623334.3499999</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="1">
+      <c r="D263" s="3">
+        <f>B263/$B$263</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
         <v>2015</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="1">
         <v>1444789929.6199999</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="1">
+      <c r="D264" s="3">
+        <f t="shared" ref="D264:D271" si="29">B264/$B$263</f>
+        <v>0.3461716148961036</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
         <v>2015</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="1">
         <v>545861741.76999998</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1">
+      <c r="D265" s="3">
+        <f t="shared" si="29"/>
+        <v>0.13078845359077246</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
         <v>2015</v>
       </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="1" t="s">
+      <c r="C266" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="1">
+      <c r="D266" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
         <v>2015</v>
       </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="1" t="s">
+      <c r="C267" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1">
+      <c r="D267" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
         <v>2015</v>
       </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="1" t="s">
+      <c r="C268" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1">
+      <c r="D268" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
         <v>2015</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="1">
         <v>1093918144.02</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1">
+      <c r="D269" s="3">
+        <f t="shared" si="29"/>
+        <v>0.2621027477531982</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
         <v>2015</v>
       </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="1" t="s">
+      <c r="C270" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1">
+      <c r="D270" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
         <v>2015</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="1">
         <v>1089053518.9400001</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="1">
+      <c r="D271" s="3">
+        <f t="shared" si="29"/>
+        <v>0.26093718375992575</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
         <v>2016</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="1">
         <v>4405650635.4899998</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1">
+      <c r="D272" s="3">
+        <f>B272/$B$272</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
         <v>2016</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="1">
         <v>1637428985.3299999</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1">
+      <c r="D273" s="3">
+        <f t="shared" ref="D273:D280" si="30">B273/$B$272</f>
+        <v>0.37166564505582589</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
         <v>2016</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="1">
         <v>631257600.50999999</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1">
+      <c r="D274" s="3">
+        <f t="shared" si="30"/>
+        <v>0.1432836265828398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
         <v>2016</v>
       </c>
-      <c r="B275" s="2"/>
-      <c r="C275" s="1" t="s">
+      <c r="C275" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1">
+      <c r="D275" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
         <v>2016</v>
       </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="1" t="s">
+      <c r="C276" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="1">
+      <c r="D276" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>2016</v>
       </c>
-      <c r="B277" s="2"/>
-      <c r="C277" s="1" t="s">
+      <c r="C277" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1">
+      <c r="D277" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
         <v>2016</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="1">
         <v>1223001584.7</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="1">
+      <c r="D278" s="3">
+        <f t="shared" si="30"/>
+        <v>0.27759840393335611</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
         <v>2016</v>
       </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="1" t="s">
+      <c r="C279" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1">
+      <c r="D279" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
         <v>2016</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="1">
         <v>913962464.96000004</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="1">
+      <c r="D280" s="3">
+        <f t="shared" si="30"/>
+        <v>0.20745232443024808</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
         <v>2017</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="1">
         <v>4927996722.0600004</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1">
+      <c r="D281" s="3">
+        <f>B281/$B$281</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
         <v>2017</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="1">
         <v>1866641838.29</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="1">
+      <c r="D282" s="3">
+        <f t="shared" ref="D282:D289" si="31">B282/$B$281</f>
+        <v>0.37878309251587866</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
         <v>2017</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="1">
         <v>639005336.25999999</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="1">
+      <c r="D283" s="3">
+        <f t="shared" si="31"/>
+        <v>0.12966837688822225</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
         <v>2017</v>
       </c>
-      <c r="B284" s="2"/>
-      <c r="C284" s="1" t="s">
+      <c r="C284" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="1">
+      <c r="D284" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
         <v>2017</v>
       </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="1" t="s">
+      <c r="C285" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="1">
+      <c r="D285" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
         <v>2017</v>
       </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="1" t="s">
+      <c r="C286" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="1">
+      <c r="D286" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
         <v>2017</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="1">
         <v>1354399795.51</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="1">
+      <c r="D287" s="3">
+        <f t="shared" si="31"/>
+        <v>0.27483780365499799</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
         <v>2017</v>
       </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="1" t="s">
+      <c r="C288" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="1">
+      <c r="D288" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
         <v>2017</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="1">
         <v>1067949752</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="1">
+      <c r="D289" s="3">
+        <f t="shared" si="31"/>
+        <v>0.21671072694090102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
         <v>2018</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="1">
         <v>5210477570.46</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="1">
+      <c r="D290" s="3">
+        <f>B290/$B$290</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
         <v>2018</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="1">
         <v>2069973644.25</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="1">
+      <c r="D291" s="3">
+        <f t="shared" ref="D291:D298" si="32">B291/$B$290</f>
+        <v>0.39727138563754633</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
         <v>2018</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="1">
         <v>706858075.62</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="1">
+      <c r="D292" s="3">
+        <f t="shared" si="32"/>
+        <v>0.1356608998045444</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
         <v>2018</v>
       </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="1" t="s">
+      <c r="C293" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1">
+      <c r="D293" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
         <v>2018</v>
       </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="1" t="s">
+      <c r="C294" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1">
+      <c r="D294" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
         <v>2018</v>
       </c>
-      <c r="B295" s="2"/>
-      <c r="C295" s="1" t="s">
+      <c r="C295" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="1">
+      <c r="D295" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
         <v>2018</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="1">
         <v>1470772205.5899999</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="1">
+      <c r="D296" s="3">
+        <f t="shared" si="32"/>
+        <v>0.28227205389546561</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
         <v>2018</v>
       </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="1" t="s">
+      <c r="C297" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="1">
+      <c r="D297" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
         <v>2018</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="1">
         <v>962873645</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="1">
+      <c r="D298" s="3">
+        <f t="shared" si="32"/>
+        <v>0.18479566066244366</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
         <v>2019</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="1">
         <v>5615609282.1499996</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="1">
+      <c r="D299" s="3">
+        <f>B299/$B$299</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
         <v>2019</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="1">
         <v>2087013220.28</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="1">
+      <c r="D300" s="3">
+        <f t="shared" ref="D300:D307" si="33">B300/$B$299</f>
+        <v>0.37164501934168814</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
         <v>2019</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="1">
         <v>785395782.22000003</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="1">
+      <c r="D301" s="3">
+        <f t="shared" si="33"/>
+        <v>0.13985940665717084</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
         <v>2019</v>
       </c>
-      <c r="B302" s="2"/>
-      <c r="C302" s="1" t="s">
+      <c r="C302" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="1">
+      <c r="D302" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
         <v>2019</v>
       </c>
-      <c r="B303" s="2"/>
-      <c r="C303" s="1" t="s">
+      <c r="C303" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="1">
+      <c r="D303" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
         <v>2019</v>
       </c>
-      <c r="B304" s="2"/>
-      <c r="C304" s="1" t="s">
+      <c r="C304" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="1">
+      <c r="D304" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
         <v>2019</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="1">
         <v>1734285763.03</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="1">
+      <c r="D305" s="3">
+        <f t="shared" si="33"/>
+        <v>0.30883305370668684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
         <v>2019</v>
       </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="1" t="s">
+      <c r="C306" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1">
+      <c r="D306" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
         <v>2019</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="1">
         <v>1008914516.62</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C307" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="1">
+      <c r="D307" s="3">
+        <f t="shared" si="33"/>
+        <v>0.17966252029445426</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
         <v>2020</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="1">
         <v>6339773442.9700003</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="1">
+      <c r="D308" s="3">
+        <f>B308/$B$308</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
         <v>2020</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="1">
         <v>2278269892.9299998</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="1">
+      <c r="D309" s="3">
+        <f t="shared" ref="D309:D316" si="34">B309/$B$308</f>
+        <v>0.35936140517076526</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
         <v>2020</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="1">
         <v>1096365388.5999999</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="1">
+      <c r="D310" s="3">
+        <f t="shared" si="34"/>
+        <v>0.17293447446702204</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
         <v>2020</v>
       </c>
-      <c r="B311" s="2"/>
-      <c r="C311" s="1" t="s">
+      <c r="C311" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="1">
+      <c r="D311" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
         <v>2020</v>
       </c>
-      <c r="B312" s="2"/>
-      <c r="C312" s="1" t="s">
+      <c r="C312" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="1">
+      <c r="D312" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
         <v>2020</v>
       </c>
-      <c r="B313" s="2"/>
-      <c r="C313" s="1" t="s">
+      <c r="C313" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1">
+      <c r="D313" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
         <v>2020</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="1">
         <v>1824876711.4400001</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C314" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="1">
+      <c r="D314" s="3">
+        <f t="shared" si="34"/>
+        <v>0.28784572948163556</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
         <v>2020</v>
       </c>
-      <c r="B315" s="2"/>
-      <c r="C315" s="1" t="s">
+      <c r="C315" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="1">
+      <c r="D315" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
         <v>2020</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="1">
         <v>1140261450</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" t="s">
         <v>11</v>
+      </c>
+      <c r="D316" s="3">
+        <f t="shared" si="34"/>
+        <v>0.17985839088057703</v>
       </c>
     </row>
   </sheetData>

--- a/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB8E4B3-8FBC-43BE-AD07-6C5A5EBB892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4DB8E4B3-8FBC-43BE-AD07-6C5A5EBB892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{66967CC8-46CC-4E0F-83C9-21C0720F6F9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 3_captaciones2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,17 +69,15 @@
     <t>I</t>
   </si>
   <si>
-    <t>percentage</t>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -503,9 +512,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -548,56 +556,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -908,20 +914,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D295" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,11 +936,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -945,12 +950,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <f>B2/$B$2</f>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -960,36 +964,33 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D10" si="0">B3/$B$2</f>
+      <c r="D3">
         <v>0.14935960669124479</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1986</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1986</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -999,12 +1000,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
+      <c r="D6">
         <v>3.7918725044935056E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1986</v>
       </c>
@@ -1014,12 +1014,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
+      <c r="D7">
         <v>1.1150051652778981E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -1029,12 +1028,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
+      <c r="D8">
         <v>0.41786047108917657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -1044,24 +1042,22 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
+      <c r="D9">
         <v>0.38371114552186458</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1986</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1987</v>
       </c>
@@ -1071,13 +1067,11 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <f>B11/$B$11</f>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1087,36 +1081,33 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="1">B12/$B$11</f>
+      <c r="D12">
         <v>0.12141532459750366</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1987</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1987</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1987</v>
       </c>
@@ -1126,12 +1117,11 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
+      <c r="D15">
         <v>2.771576046405267E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1987</v>
       </c>
@@ -1141,8 +1131,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
+      <c r="D16">
         <v>5.0482568825394487E-3</v>
       </c>
     </row>
@@ -1156,8 +1145,7 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
+      <c r="D17">
         <v>0.44073444367437792</v>
       </c>
     </row>
@@ -1171,8 +1159,7 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
+      <c r="D18">
         <v>0.40508621438152631</v>
       </c>
     </row>
@@ -1183,8 +1170,7 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -1198,8 +1184,7 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
-        <f>B20/$B$20</f>
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
@@ -1213,8 +1198,7 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" ref="D21:D28" si="2">B21/$B$20</f>
+      <c r="D21">
         <v>0.12508043246340547</v>
       </c>
     </row>
@@ -1225,8 +1209,7 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="2"/>
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
@@ -1237,8 +1220,7 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="2"/>
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
@@ -1252,8 +1234,7 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="2"/>
+      <c r="D24">
         <v>2.3423150426632296E-2</v>
       </c>
     </row>
@@ -1267,8 +1248,7 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="2"/>
+      <c r="D25">
         <v>2.309502408268885E-3</v>
       </c>
     </row>
@@ -1282,8 +1262,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="2"/>
+      <c r="D26">
         <v>5.8245974255079123E-2</v>
       </c>
     </row>
@@ -1297,8 +1276,7 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="2"/>
+      <c r="D27">
         <v>0.79094094044661423</v>
       </c>
     </row>
@@ -1309,8 +1287,7 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="2"/>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
@@ -1324,8 +1301,7 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3">
-        <f>B29/$B$29</f>
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
@@ -1339,8 +1315,7 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="D30:D37" si="3">B30/$B$29</f>
+      <c r="D30">
         <v>4.5558328206614616E-2</v>
       </c>
     </row>
@@ -1351,8 +1326,7 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="3"/>
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
@@ -1363,8 +1337,7 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="3"/>
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
@@ -1378,8 +1351,7 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="3"/>
+      <c r="D33">
         <v>8.0665474196275656E-3</v>
       </c>
     </row>
@@ -1393,8 +1365,7 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="3"/>
+      <c r="D34">
         <v>4.3438241208962266E-4</v>
       </c>
     </row>
@@ -1408,8 +1379,7 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="3"/>
+      <c r="D35">
         <v>1.468916623617354E-3</v>
       </c>
     </row>
@@ -1423,8 +1393,7 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="3"/>
+      <c r="D36">
         <v>0.12210819477183076</v>
       </c>
     </row>
@@ -1438,8 +1407,7 @@
       <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="3"/>
+      <c r="D37">
         <v>0.41400779255125009</v>
       </c>
     </row>
@@ -1453,8 +1421,7 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="3">
-        <f>B38/$B$38</f>
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1468,8 +1435,7 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" ref="D39:D46" si="4">B39/$B$38</f>
+      <c r="D39">
         <v>6.1973675072341174E-2</v>
       </c>
     </row>
@@ -1480,8 +1446,7 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="4"/>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -1492,8 +1457,7 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="4"/>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
@@ -1507,8 +1471,7 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="4"/>
+      <c r="D42">
         <v>7.0389212561637431E-3</v>
       </c>
     </row>
@@ -1522,8 +1485,7 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="3">
-        <f t="shared" si="4"/>
+      <c r="D43">
         <v>3.2863958327548074E-4</v>
       </c>
     </row>
@@ -1537,8 +1499,7 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="3">
-        <f t="shared" si="4"/>
+      <c r="D44">
         <v>5.1783628819233104E-4</v>
       </c>
     </row>
@@ -1552,8 +1513,7 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
-        <f t="shared" si="4"/>
+      <c r="D45">
         <v>0.32648437809489672</v>
       </c>
     </row>
@@ -1567,8 +1527,7 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
-        <f t="shared" si="4"/>
+      <c r="D46">
         <v>0.37024571155820446</v>
       </c>
     </row>
@@ -1582,8 +1541,7 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
-        <f>B47/$B$47</f>
+      <c r="D47">
         <v>1</v>
       </c>
     </row>
@@ -1597,8 +1555,7 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
-        <f t="shared" ref="D48:D55" si="5">B48/$B$47</f>
+      <c r="D48">
         <v>9.4496426481313719E-2</v>
       </c>
     </row>
@@ -1609,8 +1566,7 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="3">
-        <f t="shared" si="5"/>
+      <c r="D49">
         <v>0</v>
       </c>
     </row>
@@ -1621,8 +1577,7 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="3">
-        <f t="shared" si="5"/>
+      <c r="D50">
         <v>0</v>
       </c>
     </row>
@@ -1636,8 +1591,7 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3">
-        <f t="shared" si="5"/>
+      <c r="D51">
         <v>7.0377759776101912E-3</v>
       </c>
     </row>
@@ -1651,8 +1605,7 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" si="5"/>
+      <c r="D52">
         <v>2.6539829279204286E-4</v>
       </c>
     </row>
@@ -1666,8 +1619,7 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" si="5"/>
+      <c r="D53">
         <v>3.5864006498967857E-3</v>
       </c>
     </row>
@@ -1681,8 +1633,7 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="3">
-        <f t="shared" si="5"/>
+      <c r="D54">
         <v>0.45625476837341805</v>
       </c>
     </row>
@@ -1696,8 +1647,7 @@
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3">
-        <f t="shared" si="5"/>
+      <c r="D55">
         <v>0.29422292024159968</v>
       </c>
     </row>
@@ -1711,8 +1661,7 @@
       <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="3">
-        <f>B56/$B$56</f>
+      <c r="D56">
         <v>1</v>
       </c>
     </row>
@@ -1726,8 +1675,7 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="3">
-        <f t="shared" ref="D57:D64" si="6">B57/$B$56</f>
+      <c r="D57">
         <v>0.20645895610806703</v>
       </c>
     </row>
@@ -1738,8 +1686,7 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="6"/>
+      <c r="D58">
         <v>0</v>
       </c>
     </row>
@@ -1750,8 +1697,7 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" si="6"/>
+      <c r="D59">
         <v>0</v>
       </c>
     </row>
@@ -1765,8 +1711,7 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
-        <f t="shared" si="6"/>
+      <c r="D60">
         <v>5.7794783593566584E-3</v>
       </c>
     </row>
@@ -1780,8 +1725,7 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="3">
-        <f t="shared" si="6"/>
+      <c r="D61">
         <v>5.6584308736806609E-2</v>
       </c>
     </row>
@@ -1795,8 +1739,7 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="3">
-        <f t="shared" si="6"/>
+      <c r="D62">
         <v>9.4959399040388699E-3</v>
       </c>
     </row>
@@ -1810,8 +1753,7 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="3">
-        <f t="shared" si="6"/>
+      <c r="D63">
         <v>0.31215940689964344</v>
       </c>
     </row>
@@ -1825,8 +1767,7 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="3">
-        <f t="shared" si="6"/>
+      <c r="D64">
         <v>0.22213771289552051</v>
       </c>
     </row>
@@ -1840,8 +1781,7 @@
       <c r="C65" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="3">
-        <f>B65/$B$65</f>
+      <c r="D65">
         <v>1</v>
       </c>
     </row>
@@ -1855,8 +1795,7 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3">
-        <f t="shared" ref="D66:D73" si="7">B66/$B$65</f>
+      <c r="D66">
         <v>0.26544983025388397</v>
       </c>
     </row>
@@ -1867,8 +1806,7 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="3">
-        <f t="shared" si="7"/>
+      <c r="D67">
         <v>0</v>
       </c>
     </row>
@@ -1879,8 +1817,7 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="3">
-        <f t="shared" si="7"/>
+      <c r="D68">
         <v>0</v>
       </c>
     </row>
@@ -1894,8 +1831,7 @@
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="3">
-        <f t="shared" si="7"/>
+      <c r="D69">
         <v>5.6556781907693516E-3</v>
       </c>
     </row>
@@ -1909,8 +1845,7 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="3">
-        <f t="shared" si="7"/>
+      <c r="D70">
         <v>4.0531922623869322E-2</v>
       </c>
     </row>
@@ -1924,8 +1859,7 @@
       <c r="C71" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="3">
-        <f t="shared" si="7"/>
+      <c r="D71">
         <v>5.4186655362383401E-2</v>
       </c>
     </row>
@@ -1939,8 +1873,7 @@
       <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
-        <f t="shared" si="7"/>
+      <c r="D72">
         <v>0.43388905956296986</v>
       </c>
     </row>
@@ -1954,8 +1887,7 @@
       <c r="C73" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="3">
-        <f t="shared" si="7"/>
+      <c r="D73">
         <v>0.19477104396529815</v>
       </c>
     </row>
@@ -1969,8 +1901,7 @@
       <c r="C74" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="3">
-        <f>B74/$B$74</f>
+      <c r="D74">
         <v>1</v>
       </c>
     </row>
@@ -1984,8 +1915,7 @@
       <c r="C75" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="3">
-        <f t="shared" ref="D75:D82" si="8">B75/$B$74</f>
+      <c r="D75">
         <v>0.24739451089051204</v>
       </c>
     </row>
@@ -1996,8 +1926,7 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="3">
-        <f t="shared" si="8"/>
+      <c r="D76">
         <v>0</v>
       </c>
     </row>
@@ -2008,8 +1937,7 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="3">
-        <f t="shared" si="8"/>
+      <c r="D77">
         <v>0</v>
       </c>
     </row>
@@ -2023,8 +1951,7 @@
       <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="3">
-        <f t="shared" si="8"/>
+      <c r="D78">
         <v>5.2061755829092508E-3</v>
       </c>
     </row>
@@ -2038,8 +1965,7 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="3">
-        <f t="shared" si="8"/>
+      <c r="D79">
         <v>2.755490100744544E-2</v>
       </c>
     </row>
@@ -2053,8 +1979,7 @@
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="3">
-        <f t="shared" si="8"/>
+      <c r="D80">
         <v>6.0075816272812978E-2</v>
       </c>
     </row>
@@ -2068,8 +1993,7 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="3">
-        <f t="shared" si="8"/>
+      <c r="D81">
         <v>0.44280833240905959</v>
       </c>
     </row>
@@ -2083,8 +2007,7 @@
       <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="3">
-        <f t="shared" si="8"/>
+      <c r="D82">
         <v>0.21000459220036174</v>
       </c>
     </row>
@@ -2098,8 +2021,7 @@
       <c r="C83" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="3">
-        <f>B83/$B$83</f>
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
@@ -2113,8 +2035,7 @@
       <c r="C84" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="3">
-        <f t="shared" ref="D84:D91" si="9">B84/$B$83</f>
+      <c r="D84">
         <v>0.13674324794682807</v>
       </c>
     </row>
@@ -2125,8 +2046,7 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="3">
-        <f t="shared" si="9"/>
+      <c r="D85">
         <v>0</v>
       </c>
     </row>
@@ -2137,8 +2057,7 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="3">
-        <f t="shared" si="9"/>
+      <c r="D86">
         <v>0</v>
       </c>
     </row>
@@ -2152,8 +2071,7 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="3">
-        <f t="shared" si="9"/>
+      <c r="D87">
         <v>3.01593145380789E-3</v>
       </c>
     </row>
@@ -2167,8 +2085,7 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="3">
-        <f t="shared" si="9"/>
+      <c r="D88">
         <v>1.3401183339963889E-2</v>
       </c>
     </row>
@@ -2182,8 +2099,7 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="3">
-        <f t="shared" si="9"/>
+      <c r="D89">
         <v>7.1091627301897151E-2</v>
       </c>
     </row>
@@ -2197,8 +2113,7 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="3">
-        <f t="shared" si="9"/>
+      <c r="D90">
         <v>0.53699141050702703</v>
       </c>
     </row>
@@ -2212,8 +2127,7 @@
       <c r="C91" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="3">
-        <f t="shared" si="9"/>
+      <c r="D91">
         <v>0.23065069178298073</v>
       </c>
     </row>
@@ -2227,8 +2141,7 @@
       <c r="C92" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="3">
-        <f>B92/$B$92</f>
+      <c r="D92">
         <v>1</v>
       </c>
     </row>
@@ -2242,8 +2155,7 @@
       <c r="C93" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="3">
-        <f t="shared" ref="D93:D100" si="10">B93/$B$92</f>
+      <c r="D93">
         <v>0.14942981603235378</v>
       </c>
     </row>
@@ -2254,8 +2166,7 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="3">
-        <f t="shared" si="10"/>
+      <c r="D94">
         <v>0</v>
       </c>
     </row>
@@ -2266,8 +2177,7 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="3">
-        <f t="shared" si="10"/>
+      <c r="D95">
         <v>0</v>
       </c>
     </row>
@@ -2281,8 +2191,7 @@
       <c r="C96" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="3">
-        <f t="shared" si="10"/>
+      <c r="D96">
         <v>2.1987723806933812E-3</v>
       </c>
     </row>
@@ -2296,8 +2205,7 @@
       <c r="C97" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="3">
-        <f t="shared" si="10"/>
+      <c r="D97">
         <v>1.3735905611254429E-2</v>
       </c>
     </row>
@@ -2311,8 +2219,7 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="3">
-        <f t="shared" si="10"/>
+      <c r="D98">
         <v>6.0479758156265766E-2</v>
       </c>
     </row>
@@ -2326,8 +2233,7 @@
       <c r="C99" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="3">
-        <f t="shared" si="10"/>
+      <c r="D99">
         <v>0.47328975375153692</v>
       </c>
     </row>
@@ -2341,8 +2247,7 @@
       <c r="C100" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="3">
-        <f t="shared" si="10"/>
+      <c r="D100">
         <v>0.29265856510400207</v>
       </c>
     </row>
@@ -2356,8 +2261,7 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="3">
-        <f>B101/$B$101</f>
+      <c r="D101">
         <v>1</v>
       </c>
     </row>
@@ -2371,8 +2275,7 @@
       <c r="C102" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="3">
-        <f t="shared" ref="D102:D109" si="11">B102/$B$101</f>
+      <c r="D102">
         <v>0.18352984012404042</v>
       </c>
     </row>
@@ -2383,8 +2286,7 @@
       <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="3">
-        <f t="shared" si="11"/>
+      <c r="D103">
         <v>0</v>
       </c>
     </row>
@@ -2395,8 +2297,7 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="3">
-        <f t="shared" si="11"/>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
@@ -2410,8 +2311,7 @@
       <c r="C105" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="3">
-        <f t="shared" si="11"/>
+      <c r="D105">
         <v>1.7103022447752753E-3</v>
       </c>
     </row>
@@ -2425,8 +2325,7 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="3">
-        <f t="shared" si="11"/>
+      <c r="D106">
         <v>1.0409442020391372E-2</v>
       </c>
     </row>
@@ -2440,8 +2339,7 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="3">
-        <f t="shared" si="11"/>
+      <c r="D107">
         <v>6.5476302972206829E-2</v>
       </c>
     </row>
@@ -2455,8 +2353,7 @@
       <c r="C108" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="3">
-        <f t="shared" si="11"/>
+      <c r="D108">
         <v>0.42334045991739883</v>
       </c>
     </row>
@@ -2470,8 +2367,7 @@
       <c r="C109" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="3">
-        <f t="shared" si="11"/>
+      <c r="D109">
         <v>0.31553365272118727</v>
       </c>
     </row>
@@ -2485,8 +2381,7 @@
       <c r="C110" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="3">
-        <f>B110/$B$110</f>
+      <c r="D110">
         <v>1</v>
       </c>
     </row>
@@ -2500,8 +2395,7 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="3">
-        <f t="shared" ref="D111:D118" si="12">B111/$B$110</f>
+      <c r="D111">
         <v>0.19111369247585522</v>
       </c>
     </row>
@@ -2512,8 +2406,7 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="3">
-        <f t="shared" si="12"/>
+      <c r="D112">
         <v>0</v>
       </c>
     </row>
@@ -2524,8 +2417,7 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="3">
-        <f t="shared" si="12"/>
+      <c r="D113">
         <v>0</v>
       </c>
     </row>
@@ -2539,8 +2431,7 @@
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="3">
-        <f t="shared" si="12"/>
+      <c r="D114">
         <v>1.1632896488957202E-3</v>
       </c>
     </row>
@@ -2554,8 +2445,7 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="3">
-        <f t="shared" si="12"/>
+      <c r="D115">
         <v>3.7596422563860145E-3</v>
       </c>
     </row>
@@ -2569,8 +2459,7 @@
       <c r="C116" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="3">
-        <f t="shared" si="12"/>
+      <c r="D116">
         <v>8.3476187825732115E-2</v>
       </c>
     </row>
@@ -2584,8 +2473,7 @@
       <c r="C117" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="3">
-        <f t="shared" si="12"/>
+      <c r="D117">
         <v>0.42245685131989341</v>
       </c>
     </row>
@@ -2599,8 +2487,7 @@
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="3">
-        <f t="shared" si="12"/>
+      <c r="D118">
         <v>0.29803033647323751</v>
       </c>
     </row>
@@ -2614,8 +2501,7 @@
       <c r="C119" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="3">
-        <f>B119/$B$119</f>
+      <c r="D119">
         <v>1</v>
       </c>
     </row>
@@ -2629,8 +2515,7 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="3">
-        <f t="shared" ref="D120:D127" si="13">B120/$B$119</f>
+      <c r="D120">
         <v>0.16916713440767109</v>
       </c>
     </row>
@@ -2641,8 +2526,7 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="3">
-        <f t="shared" si="13"/>
+      <c r="D121">
         <v>0</v>
       </c>
     </row>
@@ -2653,8 +2537,7 @@
       <c r="C122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="3">
-        <f t="shared" si="13"/>
+      <c r="D122">
         <v>0</v>
       </c>
     </row>
@@ -2668,8 +2551,7 @@
       <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="3">
-        <f t="shared" si="13"/>
+      <c r="D123">
         <v>8.5506454629319113E-4</v>
       </c>
     </row>
@@ -2683,8 +2565,7 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="3">
-        <f t="shared" si="13"/>
+      <c r="D124">
         <v>3.5195718582733022E-3</v>
       </c>
     </row>
@@ -2698,8 +2579,7 @@
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="3">
-        <f t="shared" si="13"/>
+      <c r="D125">
         <v>8.3251914373781932E-2</v>
       </c>
     </row>
@@ -2713,8 +2593,7 @@
       <c r="C126" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="3">
-        <f t="shared" si="13"/>
+      <c r="D126">
         <v>0.42966140878145165</v>
       </c>
     </row>
@@ -2728,8 +2607,7 @@
       <c r="C127" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="3">
-        <f t="shared" si="13"/>
+      <c r="D127">
         <v>0.31354490603252883</v>
       </c>
     </row>
@@ -2743,8 +2621,7 @@
       <c r="C128" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="3">
-        <f>B128/$B$128</f>
+      <c r="D128">
         <v>1</v>
       </c>
     </row>
@@ -2758,8 +2635,7 @@
       <c r="C129" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="3">
-        <f t="shared" ref="D129:D136" si="14">B129/$B$128</f>
+      <c r="D129">
         <v>0.1763119680478698</v>
       </c>
     </row>
@@ -2770,8 +2646,7 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="3">
-        <f t="shared" si="14"/>
+      <c r="D130">
         <v>0</v>
       </c>
     </row>
@@ -2782,8 +2657,7 @@
       <c r="C131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="3">
-        <f t="shared" si="14"/>
+      <c r="D131">
         <v>0</v>
       </c>
     </row>
@@ -2797,8 +2671,7 @@
       <c r="C132" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="3">
-        <f t="shared" si="14"/>
+      <c r="D132">
         <v>8.1069098118708772E-4</v>
       </c>
     </row>
@@ -2812,8 +2685,7 @@
       <c r="C133" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="3">
-        <f t="shared" si="14"/>
+      <c r="D133">
         <v>2.9211535553243691E-3</v>
       </c>
     </row>
@@ -2827,8 +2699,7 @@
       <c r="C134" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="3">
-        <f t="shared" si="14"/>
+      <c r="D134">
         <v>7.258198981284962E-2</v>
       </c>
     </row>
@@ -2842,8 +2713,7 @@
       <c r="C135" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="3">
-        <f t="shared" si="14"/>
+      <c r="D135">
         <v>0.35482715283582128</v>
       </c>
     </row>
@@ -2857,8 +2727,7 @@
       <c r="C136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="3">
-        <f t="shared" si="14"/>
+      <c r="D136">
         <v>0.39254704476694785</v>
       </c>
     </row>
@@ -2872,8 +2741,7 @@
       <c r="C137" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="3">
-        <f>B137/$B$137</f>
+      <c r="D137">
         <v>1</v>
       </c>
     </row>
@@ -2887,8 +2755,7 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="3">
-        <f t="shared" ref="D138:D145" si="15">B138/$B$137</f>
+      <c r="D138">
         <v>0.32002045870022594</v>
       </c>
     </row>
@@ -2899,8 +2766,7 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="3">
-        <f t="shared" si="15"/>
+      <c r="D139">
         <v>0</v>
       </c>
     </row>
@@ -2911,8 +2777,7 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="3">
-        <f t="shared" si="15"/>
+      <c r="D140">
         <v>0</v>
       </c>
     </row>
@@ -2926,8 +2791,7 @@
       <c r="C141" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="3">
-        <f t="shared" si="15"/>
+      <c r="D141">
         <v>1.4000751129108946E-3</v>
       </c>
     </row>
@@ -2941,8 +2805,7 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="3">
-        <f t="shared" si="15"/>
+      <c r="D142">
         <v>4.2424601985663534E-3</v>
       </c>
     </row>
@@ -2956,8 +2819,7 @@
       <c r="C143" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="3">
-        <f t="shared" si="15"/>
+      <c r="D143">
         <v>6.1685563823525413E-2</v>
       </c>
     </row>
@@ -2971,8 +2833,7 @@
       <c r="C144" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="3">
-        <f t="shared" si="15"/>
+      <c r="D144">
         <v>0.61265144216477141</v>
       </c>
     </row>
@@ -2986,8 +2847,7 @@
       <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="3">
-        <f t="shared" si="15"/>
+      <c r="D145">
         <v>0.80597737172724127</v>
       </c>
     </row>
@@ -3001,8 +2861,7 @@
       <c r="C146" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="3">
-        <f>B146/$B$146</f>
+      <c r="D146">
         <v>1</v>
       </c>
     </row>
@@ -3016,8 +2875,7 @@
       <c r="C147" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="3">
-        <f t="shared" ref="D147:D154" si="16">B147/$B$146</f>
+      <c r="D147">
         <v>0.19253130455473921</v>
       </c>
     </row>
@@ -3028,8 +2886,7 @@
       <c r="C148" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="3">
-        <f t="shared" si="16"/>
+      <c r="D148">
         <v>0</v>
       </c>
     </row>
@@ -3040,8 +2897,7 @@
       <c r="C149" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="3">
-        <f t="shared" si="16"/>
+      <c r="D149">
         <v>0</v>
       </c>
     </row>
@@ -3055,8 +2911,7 @@
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="3">
-        <f t="shared" si="16"/>
+      <c r="D150">
         <v>7.2679244586917771E-4</v>
       </c>
     </row>
@@ -3070,8 +2925,7 @@
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="3">
-        <f t="shared" si="16"/>
+      <c r="D151">
         <v>1.3124278219334771E-3</v>
       </c>
     </row>
@@ -3085,8 +2939,7 @@
       <c r="C152" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="3">
-        <f t="shared" si="16"/>
+      <c r="D152">
         <v>1.5512655334671784E-2</v>
       </c>
     </row>
@@ -3100,8 +2953,7 @@
       <c r="C153" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="3">
-        <f t="shared" si="16"/>
+      <c r="D153">
         <v>0.28258943339031245</v>
       </c>
     </row>
@@ -3115,8 +2967,7 @@
       <c r="C154" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="3">
-        <f t="shared" si="16"/>
+      <c r="D154">
         <v>0.50732738645247388</v>
       </c>
     </row>
@@ -3130,8 +2981,7 @@
       <c r="C155" t="s">
         <v>3</v>
       </c>
-      <c r="D155" s="3">
-        <f>B155/$B$155</f>
+      <c r="D155">
         <v>1</v>
       </c>
     </row>
@@ -3145,8 +2995,7 @@
       <c r="C156" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="3">
-        <f t="shared" ref="D156:D163" si="17">B156/$B$155</f>
+      <c r="D156">
         <v>0.2739466815926162</v>
       </c>
     </row>
@@ -3157,8 +3006,7 @@
       <c r="C157" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="3">
-        <f t="shared" si="17"/>
+      <c r="D157">
         <v>0</v>
       </c>
     </row>
@@ -3169,8 +3017,7 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="3">
-        <f t="shared" si="17"/>
+      <c r="D158">
         <v>0</v>
       </c>
     </row>
@@ -3184,8 +3031,7 @@
       <c r="C159" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="3">
-        <f t="shared" si="17"/>
+      <c r="D159">
         <v>1.7947688233165284E-3</v>
       </c>
     </row>
@@ -3199,8 +3045,7 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="3">
-        <f t="shared" si="17"/>
+      <c r="D160">
         <v>1.7410529037510266E-3</v>
       </c>
     </row>
@@ -3214,8 +3059,7 @@
       <c r="C161" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="3">
-        <f t="shared" si="17"/>
+      <c r="D161">
         <v>3.0166356752516808E-2</v>
       </c>
     </row>
@@ -3229,8 +3073,7 @@
       <c r="C162" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="3">
-        <f t="shared" si="17"/>
+      <c r="D162">
         <v>0.34109781265915851</v>
       </c>
     </row>
@@ -3244,8 +3087,7 @@
       <c r="C163" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="3">
-        <f t="shared" si="17"/>
+      <c r="D163">
         <v>0.35125332726864095</v>
       </c>
     </row>
@@ -3259,8 +3101,7 @@
       <c r="C164" t="s">
         <v>3</v>
       </c>
-      <c r="D164" s="3">
-        <f>B164/$B$164</f>
+      <c r="D164">
         <v>1</v>
       </c>
     </row>
@@ -3274,8 +3115,7 @@
       <c r="C165" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="3">
-        <f t="shared" ref="D165:D172" si="18">B165/$B$164</f>
+      <c r="D165">
         <v>0.21591832699761723</v>
       </c>
     </row>
@@ -3286,8 +3126,7 @@
       <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="3">
-        <f t="shared" si="18"/>
+      <c r="D166">
         <v>0</v>
       </c>
     </row>
@@ -3301,8 +3140,7 @@
       <c r="C167" t="s">
         <v>6</v>
       </c>
-      <c r="D167" s="3">
-        <f t="shared" si="18"/>
+      <c r="D167">
         <v>6.2054331714139023E-2</v>
       </c>
     </row>
@@ -3316,8 +3154,7 @@
       <c r="C168" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="3">
-        <f t="shared" si="18"/>
+      <c r="D168">
         <v>3.0092401244819333E-3</v>
       </c>
     </row>
@@ -3328,8 +3165,7 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="3">
-        <f t="shared" si="18"/>
+      <c r="D169">
         <v>0</v>
       </c>
     </row>
@@ -3343,8 +3179,7 @@
       <c r="C170" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="3">
-        <f t="shared" si="18"/>
+      <c r="D170">
         <v>0.33591368432159452</v>
       </c>
     </row>
@@ -3355,8 +3190,7 @@
       <c r="C171" t="s">
         <v>10</v>
       </c>
-      <c r="D171" s="3">
-        <f t="shared" si="18"/>
+      <c r="D171">
         <v>0</v>
       </c>
     </row>
@@ -3370,8 +3204,7 @@
       <c r="C172" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="3">
-        <f t="shared" si="18"/>
+      <c r="D172">
         <v>0.38310441684216728</v>
       </c>
     </row>
@@ -3385,8 +3218,7 @@
       <c r="C173" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="3">
-        <f>B173/$B$173</f>
+      <c r="D173">
         <v>1</v>
       </c>
     </row>
@@ -3400,8 +3232,7 @@
       <c r="C174" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="3">
-        <f t="shared" ref="D174:D181" si="19">B174/$B$173</f>
+      <c r="D174">
         <v>0.22729646513321192</v>
       </c>
     </row>
@@ -3412,8 +3243,7 @@
       <c r="C175" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="3">
-        <f t="shared" si="19"/>
+      <c r="D175">
         <v>0</v>
       </c>
     </row>
@@ -3427,8 +3257,7 @@
       <c r="C176" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="3">
-        <f t="shared" si="19"/>
+      <c r="D176">
         <v>6.8339583518796515E-2</v>
       </c>
     </row>
@@ -3442,8 +3271,7 @@
       <c r="C177" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="3">
-        <f t="shared" si="19"/>
+      <c r="D177">
         <v>9.3350096914476658E-4</v>
       </c>
     </row>
@@ -3454,8 +3282,7 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" s="3">
-        <f t="shared" si="19"/>
+      <c r="D178">
         <v>0</v>
       </c>
     </row>
@@ -3469,8 +3296,7 @@
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179" s="3">
-        <f t="shared" si="19"/>
+      <c r="D179">
         <v>0.31607821393315189</v>
       </c>
     </row>
@@ -3481,8 +3307,7 @@
       <c r="C180" t="s">
         <v>10</v>
       </c>
-      <c r="D180" s="3">
-        <f t="shared" si="19"/>
+      <c r="D180">
         <v>0</v>
       </c>
     </row>
@@ -3496,8 +3321,7 @@
       <c r="C181" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="3">
-        <f t="shared" si="19"/>
+      <c r="D181">
         <v>0.38735223692929904</v>
       </c>
     </row>
@@ -3511,8 +3335,7 @@
       <c r="C182" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="3">
-        <f>B182/$B$182</f>
+      <c r="D182">
         <v>1</v>
       </c>
     </row>
@@ -3526,8 +3349,7 @@
       <c r="C183" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="3">
-        <f t="shared" ref="D183:D190" si="20">B183/$B$182</f>
+      <c r="D183">
         <v>0.25192018016290552</v>
       </c>
     </row>
@@ -3541,8 +3363,7 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="3">
-        <f t="shared" si="20"/>
+      <c r="D184">
         <v>7.3370909104610138E-2</v>
       </c>
     </row>
@@ -3553,8 +3374,7 @@
       <c r="C185" t="s">
         <v>6</v>
       </c>
-      <c r="D185" s="3">
-        <f t="shared" si="20"/>
+      <c r="D185">
         <v>0</v>
       </c>
     </row>
@@ -3565,8 +3385,7 @@
       <c r="C186" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="3">
-        <f t="shared" si="20"/>
+      <c r="D186">
         <v>0</v>
       </c>
     </row>
@@ -3577,8 +3396,7 @@
       <c r="C187" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="3">
-        <f t="shared" si="20"/>
+      <c r="D187">
         <v>0</v>
       </c>
     </row>
@@ -3592,8 +3410,7 @@
       <c r="C188" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="3">
-        <f t="shared" si="20"/>
+      <c r="D188">
         <v>0.29537256692855823</v>
       </c>
     </row>
@@ -3604,8 +3421,7 @@
       <c r="C189" t="s">
         <v>10</v>
       </c>
-      <c r="D189" s="3">
-        <f t="shared" si="20"/>
+      <c r="D189">
         <v>0</v>
       </c>
     </row>
@@ -3619,8 +3435,7 @@
       <c r="C190" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="3">
-        <f t="shared" si="20"/>
+      <c r="D190">
         <v>0.37933634380392611</v>
       </c>
     </row>
@@ -3634,8 +3449,7 @@
       <c r="C191" t="s">
         <v>3</v>
       </c>
-      <c r="D191" s="3">
-        <f>B191/$B$191</f>
+      <c r="D191">
         <v>1</v>
       </c>
     </row>
@@ -3649,8 +3463,7 @@
       <c r="C192" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="3">
-        <f t="shared" ref="D192:D199" si="21">B192/$B$191</f>
+      <c r="D192">
         <v>0.24742681264301111</v>
       </c>
     </row>
@@ -3664,8 +3477,7 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="3">
-        <f t="shared" si="21"/>
+      <c r="D193">
         <v>7.4872077960853795E-2</v>
       </c>
     </row>
@@ -3676,8 +3488,7 @@
       <c r="C194" t="s">
         <v>6</v>
       </c>
-      <c r="D194" s="3">
-        <f t="shared" si="21"/>
+      <c r="D194">
         <v>0</v>
       </c>
     </row>
@@ -3688,8 +3499,7 @@
       <c r="C195" t="s">
         <v>7</v>
       </c>
-      <c r="D195" s="3">
-        <f t="shared" si="21"/>
+      <c r="D195">
         <v>0</v>
       </c>
     </row>
@@ -3700,8 +3510,7 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="3">
-        <f t="shared" si="21"/>
+      <c r="D196">
         <v>0</v>
       </c>
     </row>
@@ -3715,8 +3524,7 @@
       <c r="C197" t="s">
         <v>9</v>
       </c>
-      <c r="D197" s="3">
-        <f t="shared" si="21"/>
+      <c r="D197">
         <v>0.26481940405308652</v>
       </c>
     </row>
@@ -3727,8 +3535,7 @@
       <c r="C198" t="s">
         <v>10</v>
       </c>
-      <c r="D198" s="3">
-        <f t="shared" si="21"/>
+      <c r="D198">
         <v>0</v>
       </c>
     </row>
@@ -3742,8 +3549,7 @@
       <c r="C199" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="3">
-        <f t="shared" si="21"/>
+      <c r="D199">
         <v>0.41288170534304858</v>
       </c>
     </row>
@@ -3757,8 +3563,7 @@
       <c r="C200" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="3">
-        <f>B200/$B$200</f>
+      <c r="D200">
         <v>1</v>
       </c>
     </row>
@@ -3772,8 +3577,7 @@
       <c r="C201" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="3">
-        <f t="shared" ref="D201:D208" si="22">B201/$B$200</f>
+      <c r="D201">
         <v>0.24494640262257669</v>
       </c>
     </row>
@@ -3787,8 +3591,7 @@
       <c r="C202" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="3">
-        <f t="shared" si="22"/>
+      <c r="D202">
         <v>6.8678809934519941E-2</v>
       </c>
     </row>
@@ -3799,8 +3602,7 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
-      <c r="D203" s="3">
-        <f t="shared" si="22"/>
+      <c r="D203">
         <v>0</v>
       </c>
     </row>
@@ -3811,8 +3613,7 @@
       <c r="C204" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="3">
-        <f t="shared" si="22"/>
+      <c r="D204">
         <v>0</v>
       </c>
     </row>
@@ -3823,8 +3624,7 @@
       <c r="C205" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="3">
-        <f t="shared" si="22"/>
+      <c r="D205">
         <v>0</v>
       </c>
     </row>
@@ -3838,8 +3638,7 @@
       <c r="C206" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="3">
-        <f t="shared" si="22"/>
+      <c r="D206">
         <v>0.29773254236696806</v>
       </c>
     </row>
@@ -3850,8 +3649,7 @@
       <c r="C207" t="s">
         <v>10</v>
       </c>
-      <c r="D207" s="3">
-        <f t="shared" si="22"/>
+      <c r="D207">
         <v>0</v>
       </c>
     </row>
@@ -3865,8 +3663,7 @@
       <c r="C208" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="3">
-        <f t="shared" si="22"/>
+      <c r="D208">
         <v>0.38864224507593531</v>
       </c>
     </row>
@@ -3880,8 +3677,7 @@
       <c r="C209" t="s">
         <v>3</v>
       </c>
-      <c r="D209" s="3">
-        <f>B209/$B$209</f>
+      <c r="D209">
         <v>1</v>
       </c>
     </row>
@@ -3895,8 +3691,7 @@
       <c r="C210" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="3">
-        <f t="shared" ref="D210:D217" si="23">B210/$B$209</f>
+      <c r="D210">
         <v>0.24347139886124408</v>
       </c>
     </row>
@@ -3910,8 +3705,7 @@
       <c r="C211" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="3">
-        <f t="shared" si="23"/>
+      <c r="D211">
         <v>7.3114934916197097E-2</v>
       </c>
     </row>
@@ -3922,8 +3716,7 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="3">
-        <f t="shared" si="23"/>
+      <c r="D212">
         <v>0</v>
       </c>
     </row>
@@ -3934,8 +3727,7 @@
       <c r="C213" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="3">
-        <f t="shared" si="23"/>
+      <c r="D213">
         <v>0</v>
       </c>
     </row>
@@ -3946,8 +3738,7 @@
       <c r="C214" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="3">
-        <f t="shared" si="23"/>
+      <c r="D214">
         <v>0</v>
       </c>
     </row>
@@ -3961,8 +3752,7 @@
       <c r="C215" t="s">
         <v>9</v>
       </c>
-      <c r="D215" s="3">
-        <f t="shared" si="23"/>
+      <c r="D215">
         <v>0.29428059827384351</v>
       </c>
     </row>
@@ -3973,8 +3763,7 @@
       <c r="C216" t="s">
         <v>10</v>
       </c>
-      <c r="D216" s="3">
-        <f t="shared" si="23"/>
+      <c r="D216">
         <v>0</v>
       </c>
     </row>
@@ -3988,8 +3777,7 @@
       <c r="C217" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="3">
-        <f t="shared" si="23"/>
+      <c r="D217">
         <v>0.38913306794871538</v>
       </c>
     </row>
@@ -4003,8 +3791,7 @@
       <c r="C218" t="s">
         <v>3</v>
       </c>
-      <c r="D218" s="3">
-        <f>B218/$B$218</f>
+      <c r="D218">
         <v>1</v>
       </c>
     </row>
@@ -4018,8 +3805,7 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="3">
-        <f t="shared" ref="D219:D226" si="24">B219/$B$218</f>
+      <c r="D219">
         <v>0.28312123775393166</v>
       </c>
     </row>
@@ -4033,8 +3819,7 @@
       <c r="C220" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="3">
-        <f t="shared" si="24"/>
+      <c r="D220">
         <v>8.7960272368617462E-2</v>
       </c>
     </row>
@@ -4045,8 +3830,7 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="3">
-        <f t="shared" si="24"/>
+      <c r="D221">
         <v>0</v>
       </c>
     </row>
@@ -4057,8 +3841,7 @@
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="3">
-        <f t="shared" si="24"/>
+      <c r="D222">
         <v>0</v>
       </c>
     </row>
@@ -4069,8 +3852,7 @@
       <c r="C223" t="s">
         <v>8</v>
       </c>
-      <c r="D223" s="3">
-        <f t="shared" si="24"/>
+      <c r="D223">
         <v>0</v>
       </c>
     </row>
@@ -4084,8 +3866,7 @@
       <c r="C224" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="3">
-        <f t="shared" si="24"/>
+      <c r="D224">
         <v>0.30604953465438117</v>
       </c>
     </row>
@@ -4096,8 +3877,7 @@
       <c r="C225" t="s">
         <v>10</v>
       </c>
-      <c r="D225" s="3">
-        <f t="shared" si="24"/>
+      <c r="D225">
         <v>0</v>
       </c>
     </row>
@@ -4111,8 +3891,7 @@
       <c r="C226" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="3">
-        <f t="shared" si="24"/>
+      <c r="D226">
         <v>0.3228689552230698</v>
       </c>
     </row>
@@ -4126,8 +3905,7 @@
       <c r="C227" t="s">
         <v>3</v>
       </c>
-      <c r="D227" s="3">
-        <f>B227/$B$227</f>
+      <c r="D227">
         <v>1</v>
       </c>
     </row>
@@ -4141,8 +3919,7 @@
       <c r="C228" t="s">
         <v>4</v>
       </c>
-      <c r="D228" s="3">
-        <f t="shared" ref="D228:D235" si="25">B228/$B$227</f>
+      <c r="D228">
         <v>0.32550151044353975</v>
       </c>
     </row>
@@ -4156,8 +3933,7 @@
       <c r="C229" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="3">
-        <f t="shared" si="25"/>
+      <c r="D229">
         <v>9.5748868200425843E-2</v>
       </c>
     </row>
@@ -4168,8 +3944,7 @@
       <c r="C230" t="s">
         <v>6</v>
       </c>
-      <c r="D230" s="3">
-        <f t="shared" si="25"/>
+      <c r="D230">
         <v>0</v>
       </c>
     </row>
@@ -4180,8 +3955,7 @@
       <c r="C231" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="3">
-        <f t="shared" si="25"/>
+      <c r="D231">
         <v>0</v>
       </c>
     </row>
@@ -4192,8 +3966,7 @@
       <c r="C232" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="3">
-        <f t="shared" si="25"/>
+      <c r="D232">
         <v>0</v>
       </c>
     </row>
@@ -4207,8 +3980,7 @@
       <c r="C233" t="s">
         <v>9</v>
       </c>
-      <c r="D233" s="3">
-        <f t="shared" si="25"/>
+      <c r="D233">
         <v>0.28741733059716662</v>
       </c>
     </row>
@@ -4219,8 +3991,7 @@
       <c r="C234" t="s">
         <v>10</v>
       </c>
-      <c r="D234" s="3">
-        <f t="shared" si="25"/>
+      <c r="D234">
         <v>0</v>
       </c>
     </row>
@@ -4234,8 +4005,7 @@
       <c r="C235" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="3">
-        <f t="shared" si="25"/>
+      <c r="D235">
         <v>0.29133229076210282</v>
       </c>
     </row>
@@ -4249,8 +4019,7 @@
       <c r="C236" t="s">
         <v>3</v>
       </c>
-      <c r="D236" s="3">
-        <f>B236/$B$236</f>
+      <c r="D236">
         <v>1</v>
       </c>
     </row>
@@ -4264,8 +4033,7 @@
       <c r="C237" t="s">
         <v>4</v>
       </c>
-      <c r="D237" s="3">
-        <f t="shared" ref="D237:D244" si="26">B237/$B$236</f>
+      <c r="D237">
         <v>0.35576044676522417</v>
       </c>
     </row>
@@ -4279,8 +4047,7 @@
       <c r="C238" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="3">
-        <f t="shared" si="26"/>
+      <c r="D238">
         <v>0.10642392460802498</v>
       </c>
     </row>
@@ -4291,8 +4058,7 @@
       <c r="C239" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="3">
-        <f t="shared" si="26"/>
+      <c r="D239">
         <v>0</v>
       </c>
     </row>
@@ -4303,8 +4069,7 @@
       <c r="C240" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="3">
-        <f t="shared" si="26"/>
+      <c r="D240">
         <v>0</v>
       </c>
     </row>
@@ -4315,8 +4080,7 @@
       <c r="C241" t="s">
         <v>8</v>
       </c>
-      <c r="D241" s="3">
-        <f t="shared" si="26"/>
+      <c r="D241">
         <v>0</v>
       </c>
     </row>
@@ -4330,8 +4094,7 @@
       <c r="C242" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="3">
-        <f t="shared" si="26"/>
+      <c r="D242">
         <v>0.27483953349518453</v>
       </c>
     </row>
@@ -4342,8 +4105,7 @@
       <c r="C243" t="s">
         <v>10</v>
       </c>
-      <c r="D243" s="3">
-        <f t="shared" si="26"/>
+      <c r="D243">
         <v>0</v>
       </c>
     </row>
@@ -4357,8 +4119,7 @@
       <c r="C244" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="3">
-        <f t="shared" si="26"/>
+      <c r="D244">
         <v>0.26297609513156628</v>
       </c>
     </row>
@@ -4372,8 +4133,7 @@
       <c r="C245" t="s">
         <v>3</v>
       </c>
-      <c r="D245" s="3">
-        <f>B245/$B$245</f>
+      <c r="D245">
         <v>1</v>
       </c>
     </row>
@@ -4387,8 +4147,7 @@
       <c r="C246" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="3">
-        <f t="shared" ref="D246:D253" si="27">B246/$B$245</f>
+      <c r="D246">
         <v>0.33335311445409949</v>
       </c>
     </row>
@@ -4402,8 +4161,7 @@
       <c r="C247" t="s">
         <v>5</v>
       </c>
-      <c r="D247" s="3">
-        <f t="shared" si="27"/>
+      <c r="D247">
         <v>0.10893964437561698</v>
       </c>
     </row>
@@ -4414,8 +4172,7 @@
       <c r="C248" t="s">
         <v>6</v>
       </c>
-      <c r="D248" s="3">
-        <f t="shared" si="27"/>
+      <c r="D248">
         <v>0</v>
       </c>
     </row>
@@ -4426,8 +4183,7 @@
       <c r="C249" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="3">
-        <f t="shared" si="27"/>
+      <c r="D249">
         <v>0</v>
       </c>
     </row>
@@ -4438,8 +4194,7 @@
       <c r="C250" t="s">
         <v>8</v>
       </c>
-      <c r="D250" s="3">
-        <f t="shared" si="27"/>
+      <c r="D250">
         <v>0</v>
       </c>
     </row>
@@ -4453,8 +4208,7 @@
       <c r="C251" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="3">
-        <f t="shared" si="27"/>
+      <c r="D251">
         <v>0.26772419442699091</v>
       </c>
     </row>
@@ -4465,8 +4219,7 @@
       <c r="C252" t="s">
         <v>10</v>
       </c>
-      <c r="D252" s="3">
-        <f t="shared" si="27"/>
+      <c r="D252">
         <v>0</v>
       </c>
     </row>
@@ -4480,8 +4233,7 @@
       <c r="C253" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="3">
-        <f t="shared" si="27"/>
+      <c r="D253">
         <v>0.28998304674329251</v>
       </c>
     </row>
@@ -4495,8 +4247,7 @@
       <c r="C254" t="s">
         <v>3</v>
       </c>
-      <c r="D254" s="3">
-        <f>B254/$B$254</f>
+      <c r="D254">
         <v>1</v>
       </c>
     </row>
@@ -4510,8 +4261,7 @@
       <c r="C255" t="s">
         <v>4</v>
       </c>
-      <c r="D255" s="3">
-        <f t="shared" ref="D255:D262" si="28">B255/$B$254</f>
+      <c r="D255">
         <v>0.34731595869557913</v>
       </c>
     </row>
@@ -4525,8 +4275,7 @@
       <c r="C256" t="s">
         <v>5</v>
       </c>
-      <c r="D256" s="3">
-        <f t="shared" si="28"/>
+      <c r="D256">
         <v>0.10944750189032164</v>
       </c>
     </row>
@@ -4537,8 +4286,7 @@
       <c r="C257" t="s">
         <v>6</v>
       </c>
-      <c r="D257" s="3">
-        <f t="shared" si="28"/>
+      <c r="D257">
         <v>0</v>
       </c>
     </row>
@@ -4549,8 +4297,7 @@
       <c r="C258" t="s">
         <v>7</v>
       </c>
-      <c r="D258" s="3">
-        <f t="shared" si="28"/>
+      <c r="D258">
         <v>0</v>
       </c>
     </row>
@@ -4561,8 +4308,7 @@
       <c r="C259" t="s">
         <v>8</v>
       </c>
-      <c r="D259" s="3">
-        <f t="shared" si="28"/>
+      <c r="D259">
         <v>0</v>
       </c>
     </row>
@@ -4576,8 +4322,7 @@
       <c r="C260" t="s">
         <v>9</v>
       </c>
-      <c r="D260" s="3">
-        <f t="shared" si="28"/>
+      <c r="D260">
         <v>0.25004374830895593</v>
       </c>
     </row>
@@ -4588,8 +4333,7 @@
       <c r="C261" t="s">
         <v>10</v>
       </c>
-      <c r="D261" s="3">
-        <f t="shared" si="28"/>
+      <c r="D261">
         <v>0</v>
       </c>
     </row>
@@ -4603,8 +4347,7 @@
       <c r="C262" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="3">
-        <f t="shared" si="28"/>
+      <c r="D262">
         <v>0.29319279110514324</v>
       </c>
     </row>
@@ -4618,8 +4361,7 @@
       <c r="C263" t="s">
         <v>3</v>
       </c>
-      <c r="D263" s="3">
-        <f>B263/$B$263</f>
+      <c r="D263">
         <v>1</v>
       </c>
     </row>
@@ -4633,8 +4375,7 @@
       <c r="C264" t="s">
         <v>4</v>
       </c>
-      <c r="D264" s="3">
-        <f t="shared" ref="D264:D271" si="29">B264/$B$263</f>
+      <c r="D264">
         <v>0.3461716148961036</v>
       </c>
     </row>
@@ -4648,8 +4389,7 @@
       <c r="C265" t="s">
         <v>5</v>
       </c>
-      <c r="D265" s="3">
-        <f t="shared" si="29"/>
+      <c r="D265">
         <v>0.13078845359077246</v>
       </c>
     </row>
@@ -4660,8 +4400,7 @@
       <c r="C266" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="3">
-        <f t="shared" si="29"/>
+      <c r="D266">
         <v>0</v>
       </c>
     </row>
@@ -4672,8 +4411,7 @@
       <c r="C267" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="3">
-        <f t="shared" si="29"/>
+      <c r="D267">
         <v>0</v>
       </c>
     </row>
@@ -4684,8 +4422,7 @@
       <c r="C268" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="3">
-        <f t="shared" si="29"/>
+      <c r="D268">
         <v>0</v>
       </c>
     </row>
@@ -4699,8 +4436,7 @@
       <c r="C269" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="3">
-        <f t="shared" si="29"/>
+      <c r="D269">
         <v>0.2621027477531982</v>
       </c>
     </row>
@@ -4711,8 +4447,7 @@
       <c r="C270" t="s">
         <v>10</v>
       </c>
-      <c r="D270" s="3">
-        <f t="shared" si="29"/>
+      <c r="D270">
         <v>0</v>
       </c>
     </row>
@@ -4726,8 +4461,7 @@
       <c r="C271" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="3">
-        <f t="shared" si="29"/>
+      <c r="D271">
         <v>0.26093718375992575</v>
       </c>
     </row>
@@ -4741,8 +4475,7 @@
       <c r="C272" t="s">
         <v>3</v>
       </c>
-      <c r="D272" s="3">
-        <f>B272/$B$272</f>
+      <c r="D272">
         <v>1</v>
       </c>
     </row>
@@ -4756,8 +4489,7 @@
       <c r="C273" t="s">
         <v>4</v>
       </c>
-      <c r="D273" s="3">
-        <f t="shared" ref="D273:D280" si="30">B273/$B$272</f>
+      <c r="D273">
         <v>0.37166564505582589</v>
       </c>
     </row>
@@ -4771,8 +4503,7 @@
       <c r="C274" t="s">
         <v>5</v>
       </c>
-      <c r="D274" s="3">
-        <f t="shared" si="30"/>
+      <c r="D274">
         <v>0.1432836265828398</v>
       </c>
     </row>
@@ -4783,8 +4514,7 @@
       <c r="C275" t="s">
         <v>6</v>
       </c>
-      <c r="D275" s="3">
-        <f t="shared" si="30"/>
+      <c r="D275">
         <v>0</v>
       </c>
     </row>
@@ -4795,8 +4525,7 @@
       <c r="C276" t="s">
         <v>7</v>
       </c>
-      <c r="D276" s="3">
-        <f t="shared" si="30"/>
+      <c r="D276">
         <v>0</v>
       </c>
     </row>
@@ -4807,8 +4536,7 @@
       <c r="C277" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="3">
-        <f t="shared" si="30"/>
+      <c r="D277">
         <v>0</v>
       </c>
     </row>
@@ -4822,8 +4550,7 @@
       <c r="C278" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="3">
-        <f t="shared" si="30"/>
+      <c r="D278">
         <v>0.27759840393335611</v>
       </c>
     </row>
@@ -4834,8 +4561,7 @@
       <c r="C279" t="s">
         <v>10</v>
       </c>
-      <c r="D279" s="3">
-        <f t="shared" si="30"/>
+      <c r="D279">
         <v>0</v>
       </c>
     </row>
@@ -4849,8 +4575,7 @@
       <c r="C280" t="s">
         <v>11</v>
       </c>
-      <c r="D280" s="3">
-        <f t="shared" si="30"/>
+      <c r="D280">
         <v>0.20745232443024808</v>
       </c>
     </row>
@@ -4864,8 +4589,7 @@
       <c r="C281" t="s">
         <v>3</v>
       </c>
-      <c r="D281" s="3">
-        <f>B281/$B$281</f>
+      <c r="D281">
         <v>1</v>
       </c>
     </row>
@@ -4879,8 +4603,7 @@
       <c r="C282" t="s">
         <v>4</v>
       </c>
-      <c r="D282" s="3">
-        <f t="shared" ref="D282:D289" si="31">B282/$B$281</f>
+      <c r="D282">
         <v>0.37878309251587866</v>
       </c>
     </row>
@@ -4894,8 +4617,7 @@
       <c r="C283" t="s">
         <v>5</v>
       </c>
-      <c r="D283" s="3">
-        <f t="shared" si="31"/>
+      <c r="D283">
         <v>0.12966837688822225</v>
       </c>
     </row>
@@ -4906,8 +4628,7 @@
       <c r="C284" t="s">
         <v>6</v>
       </c>
-      <c r="D284" s="3">
-        <f t="shared" si="31"/>
+      <c r="D284">
         <v>0</v>
       </c>
     </row>
@@ -4918,8 +4639,7 @@
       <c r="C285" t="s">
         <v>7</v>
       </c>
-      <c r="D285" s="3">
-        <f t="shared" si="31"/>
+      <c r="D285">
         <v>0</v>
       </c>
     </row>
@@ -4930,8 +4650,7 @@
       <c r="C286" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="3">
-        <f t="shared" si="31"/>
+      <c r="D286">
         <v>0</v>
       </c>
     </row>
@@ -4945,8 +4664,7 @@
       <c r="C287" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="3">
-        <f t="shared" si="31"/>
+      <c r="D287">
         <v>0.27483780365499799</v>
       </c>
     </row>
@@ -4957,8 +4675,7 @@
       <c r="C288" t="s">
         <v>10</v>
       </c>
-      <c r="D288" s="3">
-        <f t="shared" si="31"/>
+      <c r="D288">
         <v>0</v>
       </c>
     </row>
@@ -4972,8 +4689,7 @@
       <c r="C289" t="s">
         <v>11</v>
       </c>
-      <c r="D289" s="3">
-        <f t="shared" si="31"/>
+      <c r="D289">
         <v>0.21671072694090102</v>
       </c>
     </row>
@@ -4987,8 +4703,7 @@
       <c r="C290" t="s">
         <v>3</v>
       </c>
-      <c r="D290" s="3">
-        <f>B290/$B$290</f>
+      <c r="D290">
         <v>1</v>
       </c>
     </row>
@@ -5002,8 +4717,7 @@
       <c r="C291" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="3">
-        <f t="shared" ref="D291:D298" si="32">B291/$B$290</f>
+      <c r="D291">
         <v>0.39727138563754633</v>
       </c>
     </row>
@@ -5017,8 +4731,7 @@
       <c r="C292" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="3">
-        <f t="shared" si="32"/>
+      <c r="D292">
         <v>0.1356608998045444</v>
       </c>
     </row>
@@ -5029,8 +4742,7 @@
       <c r="C293" t="s">
         <v>6</v>
       </c>
-      <c r="D293" s="3">
-        <f t="shared" si="32"/>
+      <c r="D293">
         <v>0</v>
       </c>
     </row>
@@ -5041,8 +4753,7 @@
       <c r="C294" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="3">
-        <f t="shared" si="32"/>
+      <c r="D294">
         <v>0</v>
       </c>
     </row>
@@ -5053,8 +4764,7 @@
       <c r="C295" t="s">
         <v>8</v>
       </c>
-      <c r="D295" s="3">
-        <f t="shared" si="32"/>
+      <c r="D295">
         <v>0</v>
       </c>
     </row>
@@ -5068,8 +4778,7 @@
       <c r="C296" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="3">
-        <f t="shared" si="32"/>
+      <c r="D296">
         <v>0.28227205389546561</v>
       </c>
     </row>
@@ -5080,8 +4789,7 @@
       <c r="C297" t="s">
         <v>10</v>
       </c>
-      <c r="D297" s="3">
-        <f t="shared" si="32"/>
+      <c r="D297">
         <v>0</v>
       </c>
     </row>
@@ -5095,8 +4803,7 @@
       <c r="C298" t="s">
         <v>11</v>
       </c>
-      <c r="D298" s="3">
-        <f t="shared" si="32"/>
+      <c r="D298">
         <v>0.18479566066244366</v>
       </c>
     </row>
@@ -5110,8 +4817,7 @@
       <c r="C299" t="s">
         <v>3</v>
       </c>
-      <c r="D299" s="3">
-        <f>B299/$B$299</f>
+      <c r="D299">
         <v>1</v>
       </c>
     </row>
@@ -5125,8 +4831,7 @@
       <c r="C300" t="s">
         <v>4</v>
       </c>
-      <c r="D300" s="3">
-        <f t="shared" ref="D300:D307" si="33">B300/$B$299</f>
+      <c r="D300">
         <v>0.37164501934168814</v>
       </c>
     </row>
@@ -5140,8 +4845,7 @@
       <c r="C301" t="s">
         <v>5</v>
       </c>
-      <c r="D301" s="3">
-        <f t="shared" si="33"/>
+      <c r="D301">
         <v>0.13985940665717084</v>
       </c>
     </row>
@@ -5152,8 +4856,7 @@
       <c r="C302" t="s">
         <v>6</v>
       </c>
-      <c r="D302" s="3">
-        <f t="shared" si="33"/>
+      <c r="D302">
         <v>0</v>
       </c>
     </row>
@@ -5164,8 +4867,7 @@
       <c r="C303" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="3">
-        <f t="shared" si="33"/>
+      <c r="D303">
         <v>0</v>
       </c>
     </row>
@@ -5176,8 +4878,7 @@
       <c r="C304" t="s">
         <v>8</v>
       </c>
-      <c r="D304" s="3">
-        <f t="shared" si="33"/>
+      <c r="D304">
         <v>0</v>
       </c>
     </row>
@@ -5191,8 +4892,7 @@
       <c r="C305" t="s">
         <v>9</v>
       </c>
-      <c r="D305" s="3">
-        <f t="shared" si="33"/>
+      <c r="D305">
         <v>0.30883305370668684</v>
       </c>
     </row>
@@ -5203,8 +4903,7 @@
       <c r="C306" t="s">
         <v>10</v>
       </c>
-      <c r="D306" s="3">
-        <f t="shared" si="33"/>
+      <c r="D306">
         <v>0</v>
       </c>
     </row>
@@ -5218,8 +4917,7 @@
       <c r="C307" t="s">
         <v>11</v>
       </c>
-      <c r="D307" s="3">
-        <f t="shared" si="33"/>
+      <c r="D307">
         <v>0.17966252029445426</v>
       </c>
     </row>
@@ -5233,8 +4931,7 @@
       <c r="C308" t="s">
         <v>3</v>
       </c>
-      <c r="D308" s="3">
-        <f>B308/$B$308</f>
+      <c r="D308">
         <v>1</v>
       </c>
     </row>
@@ -5248,8 +4945,7 @@
       <c r="C309" t="s">
         <v>4</v>
       </c>
-      <c r="D309" s="3">
-        <f t="shared" ref="D309:D316" si="34">B309/$B$308</f>
+      <c r="D309">
         <v>0.35936140517076526</v>
       </c>
     </row>
@@ -5263,8 +4959,7 @@
       <c r="C310" t="s">
         <v>5</v>
       </c>
-      <c r="D310" s="3">
-        <f t="shared" si="34"/>
+      <c r="D310">
         <v>0.17293447446702204</v>
       </c>
     </row>
@@ -5275,8 +4970,7 @@
       <c r="C311" t="s">
         <v>6</v>
       </c>
-      <c r="D311" s="3">
-        <f t="shared" si="34"/>
+      <c r="D311">
         <v>0</v>
       </c>
     </row>
@@ -5287,8 +4981,7 @@
       <c r="C312" t="s">
         <v>7</v>
       </c>
-      <c r="D312" s="3">
-        <f t="shared" si="34"/>
+      <c r="D312">
         <v>0</v>
       </c>
     </row>
@@ -5299,8 +4992,7 @@
       <c r="C313" t="s">
         <v>8</v>
       </c>
-      <c r="D313" s="3">
-        <f t="shared" si="34"/>
+      <c r="D313">
         <v>0</v>
       </c>
     </row>
@@ -5314,8 +5006,7 @@
       <c r="C314" t="s">
         <v>9</v>
       </c>
-      <c r="D314" s="3">
-        <f t="shared" si="34"/>
+      <c r="D314">
         <v>0.28784572948163556</v>
       </c>
     </row>
@@ -5326,8 +5017,7 @@
       <c r="C315" t="s">
         <v>10</v>
       </c>
-      <c r="D315" s="3">
-        <f t="shared" si="34"/>
+      <c r="D315">
         <v>0</v>
       </c>
     </row>
@@ -5341,8 +5031,7 @@
       <c r="C316" t="s">
         <v>11</v>
       </c>
-      <c r="D316" s="3">
-        <f t="shared" si="34"/>
+      <c r="D316">
         <v>0.17985839088057703</v>
       </c>
     </row>

--- a/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4DB8E4B3-8FBC-43BE-AD07-6C5A5EBB892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{66967CC8-46CC-4E0F-83C9-21C0720F6F9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{255BE587-F669-4057-AAA8-27108874ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>Percentage</t>
+    <t>percentage</t>
   </si>
 </sst>
 </file>

--- a/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{255BE587-F669-4057-AAA8-27108874ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="14_{255BE587-F669-4057-AAA8-27108874ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D99FE7A-77C6-480E-BBCA-3EFFAE8EA923}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="12">
   <si>
     <t>time</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>B</t>
@@ -76,9 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,10 +550,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -937,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,27 +938,24 @@
         <v>1986</v>
       </c>
       <c r="B2" s="1">
-        <v>11369185</v>
+        <v>1698097</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.14935960669124479</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1986</v>
       </c>
-      <c r="B3" s="1">
-        <v>1698097</v>
-      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.14935960669124479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,11 +973,14 @@
       <c r="A5">
         <v>1986</v>
       </c>
+      <c r="B5" s="1">
+        <v>431105</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.7918725044935056E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,13 +988,13 @@
         <v>1986</v>
       </c>
       <c r="B6" s="1">
-        <v>431105</v>
+        <v>126767</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>3.7918725044935056E-2</v>
+        <v>1.1150051652778981E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,13 +1002,13 @@
         <v>1986</v>
       </c>
       <c r="B7" s="1">
-        <v>126767</v>
+        <v>4750733</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>1.1150051652778981E-2</v>
+        <v>0.41786047108917657</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,88 +1016,88 @@
         <v>1986</v>
       </c>
       <c r="B8" s="1">
-        <v>4750733</v>
+        <v>4362483</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.41786047108917657</v>
+        <v>0.38371114552186458</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1986</v>
       </c>
-      <c r="B9" s="1">
-        <v>4362483</v>
-      </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.38371114552186458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1986</v>
+        <v>1987</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3220469</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.12141532459750366</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1987</v>
       </c>
-      <c r="B11" s="1">
-        <v>26524403</v>
-      </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="1">
-        <v>3220469</v>
-      </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.12141532459750366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1987</v>
       </c>
+      <c r="B13" s="1">
+        <v>735144</v>
+      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.771576046405267E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1987</v>
       </c>
+      <c r="B14" s="1">
+        <v>133902</v>
+      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.0482568825394487E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,13 +1105,13 @@
         <v>1987</v>
       </c>
       <c r="B15" s="1">
-        <v>735144</v>
+        <v>11690218</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>2.771576046405267E-2</v>
+        <v>0.44073444367437792</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,49 +1119,46 @@
         <v>1987</v>
       </c>
       <c r="B16" s="1">
-        <v>133902</v>
+        <v>10744670</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>5.0482568825394487E-3</v>
+        <v>0.40508621438152631</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1987</v>
       </c>
-      <c r="B17" s="1">
-        <v>11690218</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>0.44073444367437792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B18" s="1">
-        <v>10744670</v>
+        <v>6433444</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0.40508621438152631</v>
+        <v>0.12508043246340547</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1178,14 +1168,11 @@
       <c r="A20">
         <v>1988</v>
       </c>
-      <c r="B20" s="1">
-        <v>51434456</v>
-      </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,35 +1180,41 @@
         <v>1988</v>
       </c>
       <c r="B21" s="1">
-        <v>6433444</v>
+        <v>1204757</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0.12508043246340547</v>
+        <v>2.3423150426632296E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1988</v>
       </c>
+      <c r="B22" s="1">
+        <v>118788</v>
+      </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2.309502408268885E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1988</v>
       </c>
+      <c r="B23" s="1">
+        <v>2995850</v>
+      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5.8245974255079123E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,63 +1222,57 @@
         <v>1988</v>
       </c>
       <c r="B24" s="1">
-        <v>1204757</v>
+        <v>40681617</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>2.3423150426632296E-2</v>
+        <v>0.79094094044661423</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1988</v>
       </c>
-      <c r="B25" s="1">
-        <v>118788</v>
-      </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>2.309502408268885E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B26" s="1">
-        <v>2995850</v>
+        <v>6948241</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>5.8245974255079123E-2</v>
+        <v>7.7002920224483434E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1988</v>
-      </c>
-      <c r="B27" s="1">
-        <v>40681617</v>
+        <v>1989</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>0.79094094044661423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1296,13 +1283,13 @@
         <v>1989</v>
       </c>
       <c r="B29" s="1">
-        <v>152513081</v>
+        <v>1230254</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>1.3634119861106091E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,35 +1297,41 @@
         <v>1989</v>
       </c>
       <c r="B30" s="1">
-        <v>6948241</v>
+        <v>66249</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>4.5558328206614616E-2</v>
+        <v>7.3419538296840925E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1989</v>
       </c>
+      <c r="B31" s="1">
+        <v>224029</v>
+      </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.482770418436954E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1989</v>
       </c>
+      <c r="B32" s="1">
+        <v>18623097</v>
+      </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.20638789768861165</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1346,69 +1339,63 @@
         <v>1989</v>
       </c>
       <c r="B33" s="1">
-        <v>1230254</v>
+        <v>63141604</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>8.0665474196275656E-3</v>
+        <v>0.69975809642439346</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B34" s="1">
-        <v>66249</v>
+        <v>12566921</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>4.3438241208962266E-4</v>
+        <v>8.0843401076180585E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1989</v>
-      </c>
-      <c r="B35" s="1">
-        <v>224029</v>
+        <v>1990</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1.468916623617354E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1989</v>
-      </c>
-      <c r="B36" s="1">
-        <v>18623097</v>
+        <v>1990</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0.12210819477183076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B37" s="1">
-        <v>63141604</v>
+        <v>1427341</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>0.41400779255125009</v>
+        <v>9.1821298896902961E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,13 +1403,13 @@
         <v>1990</v>
       </c>
       <c r="B38" s="1">
-        <v>202778373</v>
+        <v>66641</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4.2870366505190494E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1430,105 +1417,105 @@
         <v>1990</v>
       </c>
       <c r="B39" s="1">
-        <v>12566921</v>
+        <v>105006</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>6.1973675072341174E-2</v>
+        <v>6.7550692595309695E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1990</v>
       </c>
+      <c r="B40" s="1">
+        <v>66203971</v>
+      </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.42589224364415346</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1990</v>
       </c>
+      <c r="B41" s="1">
+        <v>75077823</v>
+      </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.48297801479897068</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B42" s="1">
-        <v>1427341</v>
+        <v>24698833</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>7.0389212561637431E-3</v>
+        <v>0.11041060344489849</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1990</v>
-      </c>
-      <c r="B43" s="1">
-        <v>66641</v>
+        <v>1991</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>3.2863958327548074E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1990</v>
-      </c>
-      <c r="B44" s="1">
-        <v>105006</v>
+        <v>1991</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>5.1783628819233104E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B45" s="1">
-        <v>66203971</v>
+        <v>1839486</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>0.32648437809489672</v>
+        <v>8.2230103458103693E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B46" s="1">
-        <v>75077823</v>
+        <v>69368</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>0.37024571155820446</v>
+        <v>3.1009411415372208E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,13 +1523,13 @@
         <v>1991</v>
       </c>
       <c r="B47" s="1">
-        <v>261373196</v>
+        <v>937389</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4.1903876653852411E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,105 +1537,105 @@
         <v>1991</v>
       </c>
       <c r="B48" s="1">
-        <v>24698833</v>
+        <v>119252767</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>9.4496426481313719E-2</v>
+        <v>0.53309279701368384</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1991</v>
       </c>
+      <c r="B49" s="1">
+        <v>76901985</v>
+      </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.34377310741606831</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1991</v>
+        <v>1992</v>
+      </c>
+      <c r="B50" s="1">
+        <v>71474147</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.25406711925906456</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1991</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1839486</v>
+        <v>1992</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>7.0377759776101912E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1991</v>
-      </c>
-      <c r="B52" s="1">
-        <v>69368</v>
+        <v>1992</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>2.6539829279204286E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B53" s="1">
-        <v>937389</v>
+        <v>2000801</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>3.5864006498967857E-3</v>
+        <v>7.1121904579099851E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B54" s="1">
-        <v>119252767</v>
+        <v>19588955</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>0.45625476837341805</v>
+        <v>6.9632301678891645E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B55" s="1">
-        <v>76901985</v>
+        <v>3287405</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>0.29422292024159968</v>
+        <v>1.1685645135266114E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,13 +1643,13 @@
         <v>1992</v>
       </c>
       <c r="B56" s="1">
-        <v>346190586</v>
+        <v>108066648</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.38414144271415157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,32 +1657,35 @@
         <v>1992</v>
       </c>
       <c r="B57" s="1">
-        <v>71474147</v>
+        <v>76901985</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>0.20645895610806703</v>
+        <v>0.27336130075471615</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1992</v>
+        <v>1993</v>
+      </c>
+      <c r="B58" s="1">
+        <v>86918082</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.26692212197438886</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1703,72 +1693,69 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1992</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2000801</v>
+        <v>1993</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>5.7794783593566584E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B61" s="1">
-        <v>19588955</v>
+        <v>1851878</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>5.6584308736806609E-2</v>
+        <v>5.6870468609476138E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B62" s="1">
-        <v>3287405</v>
+        <v>13271649</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>9.4959399040388699E-3</v>
+        <v>4.075672899891275E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B63" s="1">
-        <v>108066648</v>
+        <v>17742713</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>0.31215940689964344</v>
+        <v>5.4487196387313003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
-        <v>76901985</v>
+        <v>142071309</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>0.22213771289552051</v>
+        <v>0.43629558312111733</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,35 +1763,35 @@
         <v>1993</v>
       </c>
       <c r="B65" s="1">
-        <v>327436947</v>
+        <v>63775236</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.19585132265732044</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B66" s="1">
-        <v>86918082</v>
+        <v>92181142</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>0.26544983025388397</v>
+        <v>0.24912735899545224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1812,10 +1799,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1823,105 +1810,102 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B69" s="1">
-        <v>1851878</v>
+        <v>1939862</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>5.6556781907693516E-3</v>
+        <v>5.2426416769238548E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B70" s="1">
-        <v>13271649</v>
+        <v>10267173</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>4.0531922623869322E-2</v>
+        <v>2.7747906332505779E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B71" s="1">
-        <v>17742713</v>
+        <v>22384722</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>5.4186655362383401E-2</v>
+        <v>6.0496610832911982E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B72" s="1">
-        <v>142071309</v>
+        <v>164993870</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>0.43388905956296986</v>
+        <v>0.44590993550002861</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B73" s="1">
-        <v>63775236</v>
+        <v>78249364</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>0.19477104396529815</v>
+        <v>0.21147554666217758</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B74" s="1">
-        <v>372607871</v>
+        <v>68052758</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.13786073433028245</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1994</v>
-      </c>
-      <c r="B75" s="1">
-        <v>92181142</v>
+        <v>1995</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>0.24739451089051204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1932,730 +1916,730 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1994</v>
+        <v>1995</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1500933</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>3.0405780991352889E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B78" s="1">
-        <v>1939862</v>
+        <v>6669342</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78">
-        <v>5.2061755829092508E-3</v>
+        <v>1.3510699825270778E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B79" s="1">
-        <v>10267173</v>
+        <v>35380038</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79">
-        <v>2.755490100744544E-2</v>
+        <v>7.1672598769814702E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B80" s="1">
-        <v>22384722</v>
+        <v>267243517</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80">
-        <v>6.0075816272812978E-2</v>
+        <v>0.54137978505775353</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B81" s="1">
-        <v>164993870</v>
+        <v>114787501</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81">
-        <v>0.44280833240905959</v>
+        <v>0.23253560391774322</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B82" s="1">
-        <v>78249364</v>
+        <v>101296923</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>0.21000459220036174</v>
+        <v>0.15066639980600718</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1995</v>
-      </c>
-      <c r="B83" s="1">
-        <v>497668141</v>
+        <v>1996</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1995</v>
-      </c>
-      <c r="B84" s="1">
-        <v>68052758</v>
+        <v>1996</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>0.13674324794682807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1995</v>
+        <v>1996</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1490525</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2.2169679879698698E-3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1995</v>
+        <v>1996</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9311428</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1.3849575014364946E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B87" s="1">
-        <v>1500933</v>
+        <v>40998601</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>3.01593145380789E-3</v>
+        <v>6.0980249219938949E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B88" s="1">
-        <v>6669342</v>
+        <v>320838217</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>1.3401183339963889E-2</v>
+        <v>0.47720639130932424</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B89" s="1">
-        <v>35380038</v>
+        <v>198390207</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>7.1091627301897151E-2</v>
+        <v>0.29508041666239482</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B90" s="1">
-        <v>267243517</v>
+        <v>170504288</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>0.53699141050702703</v>
+        <v>0.18352984012404042</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1995</v>
-      </c>
-      <c r="B91" s="1">
-        <v>114787501</v>
+        <v>1997</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>0.23065069178298073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1996</v>
-      </c>
-      <c r="B92" s="1">
-        <v>677889632</v>
+        <v>1997</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B93" s="1">
-        <v>101296923</v>
+        <v>1588918</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>0.14942981603235378</v>
+        <v>1.7103022447752753E-3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1996</v>
+        <v>1997</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9670659</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1.0409442020391372E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1996</v>
+        <v>1997</v>
+      </c>
+      <c r="B95" s="1">
+        <v>60829293</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>6.5476302972206829E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B96" s="1">
-        <v>1490525</v>
+        <v>393294974</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>2.1987723806933812E-3</v>
+        <v>0.42334045991739883</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B97" s="1">
-        <v>9311428</v>
+        <v>293139474</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>1.3735905611254429E-2</v>
+        <v>0.31553365272118727</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B98" s="1">
-        <v>40998601</v>
+        <v>208962906</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>6.0479758156265766E-2</v>
+        <v>0.19111369247585522</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1996</v>
-      </c>
-      <c r="B99" s="1">
-        <v>320838217</v>
+        <v>1998</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>0.47328975375153692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1996</v>
-      </c>
-      <c r="B100" s="1">
-        <v>198390207</v>
+        <v>1998</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>0.29265856510400207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B101" s="1">
-        <v>929027606</v>
+        <v>1271936</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>1.1632896488957202E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B102" s="1">
-        <v>170504288</v>
+        <v>4110777</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>0.18352984012404042</v>
+        <v>3.7596422563860145E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1997</v>
+        <v>1998</v>
+      </c>
+      <c r="B103" s="1">
+        <v>91272512</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>8.3476187825732115E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1997</v>
+        <v>1998</v>
+      </c>
+      <c r="B104" s="1">
+        <v>461912541</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.42245685131989341</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B105" s="1">
-        <v>1588918</v>
+        <v>325865114</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>1.7103022447752753E-3</v>
+        <v>0.29803033647323751</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B106" s="1">
-        <v>9670659</v>
+        <v>234115180</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>1.0409442020391372E-2</v>
+        <v>0.16916713440767109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1997</v>
-      </c>
-      <c r="B107" s="1">
-        <v>60829293</v>
+        <v>1999</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>6.5476302972206829E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1997</v>
-      </c>
-      <c r="B108" s="1">
-        <v>393294974</v>
+        <v>1999</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>0.42334045991739883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B109" s="1">
-        <v>293139474</v>
+        <v>1183348</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>0.31553365272118727</v>
+        <v>8.5506454629319113E-4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B110" s="1">
-        <v>1093395786</v>
+        <v>4870835</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3.5195718582733022E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B111" s="1">
-        <v>208962906</v>
+        <v>115214678</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>0.19111369247585522</v>
+        <v>8.3251914373781932E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1998</v>
+        <v>1999</v>
+      </c>
+      <c r="B112" s="1">
+        <v>594620571</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.42966140878145165</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1998</v>
+        <v>1999</v>
+      </c>
+      <c r="B113" s="1">
+        <v>433923660</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.31354490603252883</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B114" s="1">
-        <v>1271936</v>
+        <v>289186162</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>1.1632896488957202E-3</v>
+        <v>0.1763119680478698</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1998</v>
-      </c>
-      <c r="B115" s="1">
-        <v>4110777</v>
+        <v>2000</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>3.7596422563860145E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1998</v>
-      </c>
-      <c r="B116" s="1">
-        <v>91272512</v>
+        <v>2000</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>8.3476187825732115E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B117" s="1">
-        <v>461912541</v>
+        <v>1329692</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>0.42245685131989341</v>
+        <v>8.1069098118708772E-4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B118" s="1">
-        <v>325865114</v>
+        <v>4791264</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>0.29803033647323751</v>
+        <v>2.9211535553243691E-3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B119" s="1">
-        <v>1383928272</v>
+        <v>119048680</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>7.258198981284962E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B120" s="1">
-        <v>234115180</v>
+        <v>581986031</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>0.16916713440767109</v>
+        <v>0.35482715283582128</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1999</v>
+        <v>2000</v>
+      </c>
+      <c r="B121" s="1">
+        <v>643854042</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.39254704476694785</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1999</v>
+        <v>2001</v>
+      </c>
+      <c r="B122" s="1">
+        <v>326409070</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.17720070235108071</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1999</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1183348</v>
+        <v>2001</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>8.5506454629319113E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1999</v>
-      </c>
-      <c r="B124" s="1">
-        <v>4870835</v>
+        <v>2001</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>3.5195718582733022E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B125" s="1">
-        <v>115214678</v>
+        <v>1428025</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>8.3251914373781932E-2</v>
+        <v>7.7524510264038321E-4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B126" s="1">
-        <v>594620571</v>
+        <v>4327153</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>0.42966140878145165</v>
+        <v>2.3491214590960537E-3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B127" s="1">
-        <v>433923660</v>
+        <v>62917001</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D127">
-        <v>0.31354490603252883</v>
+        <v>3.4156332625878465E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B128" s="1">
-        <v>1640195871</v>
+        <v>624881885</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0.33923539229000971</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B129" s="1">
-        <v>289186162</v>
+        <v>822067206</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D129">
-        <v>0.1763119680478698</v>
+        <v>0.44628320617129463</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2000</v>
+        <v>2002</v>
+      </c>
+      <c r="B130" s="1">
+        <v>395903100</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.19253130455473921</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2663,108 +2647,105 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2000</v>
-      </c>
-      <c r="B132" s="1">
-        <v>1329692</v>
+        <v>2002</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>8.1069098118708772E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B133" s="1">
-        <v>4791264</v>
+        <v>1494507</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>2.9211535553243691E-3</v>
+        <v>7.2679244586917771E-4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B134" s="1">
-        <v>119048680</v>
+        <v>2698752</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>7.258198981284962E-2</v>
+        <v>1.3124278219334771E-3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B135" s="1">
-        <v>581986031</v>
+        <v>31898752</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D135">
-        <v>0.35482715283582128</v>
+        <v>1.5512655334671784E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B136" s="1">
-        <v>643854042</v>
+        <v>581090088</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136">
-        <v>0.39254704476694785</v>
+        <v>0.28258943339031245</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B137" s="1">
-        <v>1019963134</v>
+        <v>1043219883</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0.50732738645247388</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B138" s="1">
-        <v>326409070</v>
+        <v>453499837</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>0.32002045870022594</v>
+        <v>0.2739466815926162</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2772,10 +2753,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2783,239 +2764,236 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B141" s="1">
-        <v>1428025</v>
+        <v>2971116</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>1.4000751129108946E-3</v>
+        <v>1.7947688233165284E-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B142" s="1">
-        <v>4327153</v>
+        <v>2882193</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>4.2424601985663534E-3</v>
+        <v>1.7410529037510266E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B143" s="1">
-        <v>62917001</v>
+        <v>49938323</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143">
-        <v>6.1685563823525413E-2</v>
+        <v>3.0166356752516808E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B144" s="1">
-        <v>624881885</v>
+        <v>564663903</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>0.61265144216477141</v>
+        <v>0.34109781265915851</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B145" s="1">
-        <v>822067206</v>
+        <v>581475657</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145">
-        <v>0.80597737172724127</v>
+        <v>0.35125332726864095</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B146" s="1">
-        <v>2056305082</v>
+        <v>422727174</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0.21591832699761723</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2002</v>
-      </c>
-      <c r="B147" s="1">
-        <v>395903100</v>
+        <v>2004</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
       </c>
       <c r="D147">
-        <v>0.19253130455473921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2002</v>
+        <v>2004</v>
+      </c>
+      <c r="B148" s="1">
+        <v>121490624</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>6.2054331714139023E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2002</v>
+        <v>2004</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5891522</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>3.0092401244819333E-3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2002</v>
-      </c>
-      <c r="B150" s="1">
-        <v>1494507</v>
+        <v>2004</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150">
-        <v>7.2679244586917771E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B151" s="1">
-        <v>2698752</v>
+        <v>657655348</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151">
-        <v>1.3124278219334771E-3</v>
+        <v>0.33591368432159452</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2002</v>
-      </c>
-      <c r="B152" s="1">
-        <v>31898752</v>
+        <v>2004</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152">
-        <v>1.5512655334671784E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B153" s="1">
-        <v>581090088</v>
+        <v>750045861</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
       </c>
       <c r="D153">
-        <v>0.28258943339031245</v>
+        <v>0.38310441684216728</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B154" s="1">
-        <v>1043219883</v>
+        <v>470005261</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>0.50732738645247388</v>
+        <v>0.22729646502329043</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2003</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1655431029</v>
+        <v>2005</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B156" s="1">
-        <v>453499837</v>
+        <v>141313081</v>
       </c>
       <c r="C156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>0.2739466815926162</v>
+        <v>6.8339583485747202E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2003</v>
+        <v>2005</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1930300</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>9.3350096869332171E-4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3023,108 +3001,99 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B159" s="1">
-        <v>2971116</v>
+        <v>653588798</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159">
-        <v>1.7947688233165284E-3</v>
+        <v>0.31607821378029516</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2003</v>
-      </c>
-      <c r="B160" s="1">
-        <v>2882193</v>
+        <v>2005</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160">
-        <v>1.7410529037510266E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B161" s="1">
-        <v>49938323</v>
+        <v>800969734</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161">
-        <v>3.0166356752516808E-2</v>
+        <v>0.38735223674197389</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B162" s="1">
-        <v>564663903</v>
+        <v>565113627</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>0.34109781265915851</v>
+        <v>0.25192018016290552</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B163" s="1">
-        <v>581475657</v>
+        <v>164587452</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D163">
-        <v>0.35125332726864095</v>
+        <v>7.3370909104610138E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2004</v>
-      </c>
-      <c r="B164" s="1">
-        <v>1957810529</v>
+        <v>2006</v>
       </c>
       <c r="C164" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2004</v>
-      </c>
-      <c r="B165" s="1">
-        <v>422727174</v>
+        <v>2006</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>0.21591832699761723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -3132,180 +3101,177 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B167" s="1">
-        <v>121490624</v>
+        <v>662587104</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D167">
-        <v>6.2054331714139023E-2</v>
+        <v>0.29537256692855823</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2004</v>
-      </c>
-      <c r="B168" s="1">
-        <v>5891522</v>
+        <v>2006</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>3.0092401244819333E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2004</v>
+        <v>2006</v>
+      </c>
+      <c r="B169" s="1">
+        <v>850936741</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>0.37933634380392611</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B170" s="1">
-        <v>657655348</v>
+        <v>617414591</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>0.33591368432159452</v>
+        <v>0.24742681264301111</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2004</v>
+        <v>2007</v>
+      </c>
+      <c r="B171" s="1">
+        <v>186831463</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>7.4872077960853795E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2004</v>
-      </c>
-      <c r="B172" s="1">
-        <v>750045861</v>
+        <v>2007</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>0.38310441684216728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2005</v>
-      </c>
-      <c r="B173" s="1">
-        <v>2067807173</v>
+        <v>2007</v>
       </c>
       <c r="C173" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2005</v>
-      </c>
-      <c r="B174" s="1">
-        <v>470005261</v>
+        <v>2007</v>
       </c>
       <c r="C174" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D174">
-        <v>0.22729646513321192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2005</v>
+        <v>2007</v>
+      </c>
+      <c r="B175" s="1">
+        <v>660815060</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>0.26481940405308652</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2005</v>
-      </c>
-      <c r="B176" s="1">
-        <v>141313081</v>
+        <v>2007</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D176">
-        <v>6.8339583518796515E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B177" s="1">
-        <v>1930300</v>
+        <v>1030281183</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>9.3350096914476658E-4</v>
+        <v>0.41288170534304858</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2005</v>
+        <v>2008</v>
+      </c>
+      <c r="B178" s="1">
+        <v>694725908</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>0.24494640262257669</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B179" s="1">
-        <v>653588798</v>
+        <v>194789342</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>0.31607821393315189</v>
+        <v>6.8678809934519941E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3313,113 +3279,110 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>2005</v>
-      </c>
-      <c r="B181" s="1">
-        <v>800969734</v>
+        <v>2008</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>0.38735223692929904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>2006</v>
-      </c>
-      <c r="B182" s="1">
-        <v>2243224924</v>
+        <v>2008</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B183" s="1">
-        <v>565113627</v>
+        <v>844439880</v>
       </c>
       <c r="C183" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D183">
-        <v>0.25192018016290552</v>
+        <v>0.29773254236696806</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2006</v>
-      </c>
-      <c r="B184" s="1">
-        <v>164587452</v>
+        <v>2008</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D184">
-        <v>7.3370909104610138E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>2006</v>
+        <v>2008</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1102281289.73</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>0.38864224507593531</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2006</v>
+        <v>2009</v>
+      </c>
+      <c r="B186" s="1">
+        <v>745939568</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>0.24347139886124408</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2006</v>
+        <v>2009</v>
+      </c>
+      <c r="B187" s="1">
+        <v>224007104</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>7.3114934916197097E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2006</v>
-      </c>
-      <c r="B188" s="1">
-        <v>662587104</v>
+        <v>2009</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D188">
-        <v>0.29537256692855823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3427,88 +3390,88 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>2006</v>
-      </c>
-      <c r="B190" s="1">
-        <v>850936741</v>
+        <v>2009</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D190">
-        <v>0.37933634380392611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B191" s="1">
-        <v>2495342297</v>
+        <v>901607102</v>
       </c>
       <c r="C191" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.29428059827384351</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>2007</v>
-      </c>
-      <c r="B192" s="1">
-        <v>617414591</v>
+        <v>2009</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D192">
-        <v>0.24742681264301111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B193" s="1">
-        <v>186831463</v>
+        <v>1192212941.47</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D193">
-        <v>7.4872077960853795E-2</v>
+        <v>0.38913306794871538</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>2007</v>
+        <v>2010</v>
+      </c>
+      <c r="B194" s="1">
+        <v>824785442.74000001</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>0.28312123775393166</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>2007</v>
+        <v>2010</v>
+      </c>
+      <c r="B195" s="1">
+        <v>256244825.59</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>8.7960272368617462E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3516,24 +3479,21 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>2007</v>
-      </c>
-      <c r="B197" s="1">
-        <v>660815060</v>
+        <v>2010</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D197">
-        <v>0.26481940405308652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3541,77 +3501,77 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B199" s="1">
-        <v>1030281183</v>
+        <v>891579886.21000004</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D199">
-        <v>0.41288170534304858</v>
+        <v>0.30604953465438117</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>2008</v>
-      </c>
-      <c r="B200" s="1">
-        <v>2836236419.73</v>
+        <v>2010</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B201" s="1">
-        <v>694725908</v>
+        <v>940578023.37</v>
       </c>
       <c r="C201" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D201">
-        <v>0.24494640262257669</v>
+        <v>0.3228689552230698</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B202" s="1">
-        <v>194789342</v>
+        <v>1006176029.86</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>6.8678809934519941E-2</v>
+        <v>0.32550151044248676</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>2008</v>
+        <v>2011</v>
+      </c>
+      <c r="B203" s="1">
+        <v>295974712.80000001</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>9.5748868200116105E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3619,10 +3579,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3630,91 +3590,88 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2008</v>
-      </c>
-      <c r="B206" s="1">
-        <v>844439880</v>
+        <v>2011</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D206">
-        <v>0.29773254236696806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2008</v>
+        <v>2011</v>
+      </c>
+      <c r="B207" s="1">
+        <v>888451879.13</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>0.28741733059623681</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2008</v>
-      </c>
-      <c r="B208" s="1">
-        <v>1102281289.73</v>
+        <v>2011</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D208">
-        <v>0.38864224507593531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B209" s="1">
-        <v>3063766715.4699998</v>
+        <v>900553632.73000002</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0.29133229076116035</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B210" s="1">
-        <v>745939568</v>
+        <v>1172127631.0799999</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>0.24347139886124408</v>
+        <v>0.35576044676522417</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B211" s="1">
-        <v>224007104</v>
+        <v>350636007.38999999</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>7.3114934916197097E-2</v>
+        <v>0.10642392460802498</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -3722,10 +3679,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3733,10 +3690,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -3744,24 +3701,24 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B215" s="1">
-        <v>901607102</v>
+        <v>905516659.46000004</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215">
-        <v>0.29428059827384351</v>
+        <v>0.27483953349518453</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -3769,63 +3726,60 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B217" s="1">
-        <v>1192212941.47</v>
+        <v>866430066.13</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D217">
-        <v>0.38913306794871538</v>
+        <v>0.26297609513156628</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B218" s="1">
-        <v>2913188177.9099998</v>
+        <v>1197413951.3699999</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0.33335311445409949</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B219" s="1">
-        <v>824785442.74000001</v>
+        <v>391314328.19</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
       </c>
       <c r="D219">
-        <v>0.28312123775393166</v>
+        <v>0.10893964437561698</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>2010</v>
-      </c>
-      <c r="B220" s="1">
-        <v>256244825.59</v>
+        <v>2013</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
       <c r="D220">
-        <v>8.7960272368617462E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -3836,7 +3790,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -3847,102 +3801,99 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>2010</v>
+        <v>2013</v>
+      </c>
+      <c r="B223" s="1">
+        <v>961672987.66999996</v>
       </c>
       <c r="C223" t="s">
         <v>8</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>0.26772419442699091</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>2010</v>
-      </c>
-      <c r="B224" s="1">
-        <v>891579886.21000004</v>
+        <v>2013</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
       </c>
       <c r="D224">
-        <v>0.30604953465438117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>2010</v>
+        <v>2013</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1041627423.8200001</v>
       </c>
       <c r="C225" t="s">
         <v>10</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>0.28998304674329251</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B226" s="1">
-        <v>940578023.37</v>
+        <v>1366289537.5999999</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>0.3228689552230698</v>
+        <v>0.34731595869557913</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B227" s="1">
-        <v>3091156254.5100002</v>
+        <v>430550261.24000001</v>
       </c>
       <c r="C227" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0.10944750189032164</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>2011</v>
-      </c>
-      <c r="B228" s="1">
-        <v>1006176029.86</v>
+        <v>2014</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>0.32550151044353975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>2011</v>
-      </c>
-      <c r="B229" s="1">
-        <v>295974712.80000001</v>
+        <v>2014</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>9.5748868200425843E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -3950,21 +3901,24 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>2011</v>
+        <v>2014</v>
+      </c>
+      <c r="B231" s="1">
+        <v>983635069.75</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>0.25004374830895593</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -3972,102 +3926,99 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B233" s="1">
-        <v>888451879.13</v>
+        <v>1153377012.9400001</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D233">
-        <v>0.28741733059716662</v>
+        <v>0.29319279110514324</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>2011</v>
+        <v>2015</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1444789929.6199999</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>0.3461716148961036</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B235" s="1">
-        <v>900553632.73000002</v>
+        <v>545861741.76999998</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D235">
-        <v>0.29133229076210282</v>
+        <v>0.13078845359077246</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>2012</v>
-      </c>
-      <c r="B236" s="1">
-        <v>3294710364.0599999</v>
+        <v>2015</v>
       </c>
       <c r="C236" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>2012</v>
-      </c>
-      <c r="B237" s="1">
-        <v>1172127631.0799999</v>
+        <v>2015</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D237">
-        <v>0.35576044676522417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>2012</v>
-      </c>
-      <c r="B238" s="1">
-        <v>350636007.38999999</v>
+        <v>2015</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D238">
-        <v>0.10642392460802498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>2012</v>
+        <v>2015</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1093918144.02</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>0.2621027477531982</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -4075,102 +4026,99 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>2012</v>
+        <v>2015</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1089053518.9400001</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>0.26093718375992575</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B242" s="1">
-        <v>905516659.46000004</v>
+        <v>1637428985.3299999</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D242">
-        <v>0.27483953349518453</v>
+        <v>0.37166564505498223</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>2012</v>
+        <v>2016</v>
+      </c>
+      <c r="B243" s="1">
+        <v>631257600.50999999</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>0.14328362658251456</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>2012</v>
-      </c>
-      <c r="B244" s="1">
-        <v>866430066.13</v>
+        <v>2016</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D244">
-        <v>0.26297609513156628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>2013</v>
-      </c>
-      <c r="B245" s="1">
-        <v>3592028691.0500002</v>
+        <v>2016</v>
       </c>
       <c r="C245" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>2013</v>
-      </c>
-      <c r="B246" s="1">
-        <v>1197413951.3699999</v>
+        <v>2016</v>
       </c>
       <c r="C246" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D246">
-        <v>0.33335311445409949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B247" s="1">
-        <v>391314328.19</v>
+        <v>1223001584.7</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D247">
-        <v>0.10893964437561698</v>
+        <v>0.277598403932726</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -4178,46 +4126,52 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>2013</v>
+        <v>2016</v>
+      </c>
+      <c r="B249" s="1">
+        <v>913962464.96000004</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>0.20745232442977718</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>2013</v>
+        <v>2017</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1866641838.29</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>0.37878309251587866</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B251" s="1">
-        <v>961672987.66999996</v>
+        <v>639005336.25999999</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D251">
-        <v>0.26772419442699091</v>
+        <v>0.12966837688822225</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -4225,113 +4179,110 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>2013</v>
-      </c>
-      <c r="B253" s="1">
-        <v>1041627423.8200001</v>
+        <v>2017</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D253">
-        <v>0.28998304674329251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>2014</v>
-      </c>
-      <c r="B254" s="1">
-        <v>3933851881.5300002</v>
+        <v>2017</v>
       </c>
       <c r="C254" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B255" s="1">
-        <v>1366289537.5999999</v>
+        <v>1354399795.51</v>
       </c>
       <c r="C255" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D255">
-        <v>0.34731595869557913</v>
+        <v>0.27483780365499799</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>2014</v>
-      </c>
-      <c r="B256" s="1">
-        <v>430550261.24000001</v>
+        <v>2017</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D256">
-        <v>0.10944750189032164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>2014</v>
+        <v>2017</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1067949752</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>0.21671072694090102</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2069973644.25</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>0.39727138563754633</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="B259" s="1">
+        <v>706858075.62</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>0.1356608998045444</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>2014</v>
-      </c>
-      <c r="B260" s="1">
-        <v>983635069.75</v>
+        <v>2018</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D260">
-        <v>0.25004374830895593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4339,88 +4290,88 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>2014</v>
-      </c>
-      <c r="B262" s="1">
-        <v>1153377012.9400001</v>
+        <v>2018</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D262">
-        <v>0.29319279110514324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B263" s="1">
-        <v>4173623334.3499999</v>
+        <v>1470772205.5899999</v>
       </c>
       <c r="C263" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0.28227205389546561</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2015</v>
-      </c>
-      <c r="B264" s="1">
-        <v>1444789929.6199999</v>
+        <v>2018</v>
       </c>
       <c r="C264" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D264">
-        <v>0.3461716148961036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B265" s="1">
-        <v>545861741.76999998</v>
+        <v>962873645</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D265">
-        <v>0.13078845359077246</v>
+        <v>0.18479566066244366</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>2015</v>
+        <v>2019</v>
+      </c>
+      <c r="B266" s="1">
+        <v>2087013220.28</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>0.37164501934168814</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>2015</v>
+        <v>2019</v>
+      </c>
+      <c r="B267" s="1">
+        <v>785395782.22000003</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>0.13985940665717084</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C268" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -4428,24 +4379,21 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>2015</v>
-      </c>
-      <c r="B269" s="1">
-        <v>1093918144.02</v>
+        <v>2019</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D269">
-        <v>0.2621027477531982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -4453,77 +4401,77 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B271" s="1">
-        <v>1089053518.9400001</v>
+        <v>1734285763.03</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D271">
-        <v>0.26093718375992575</v>
+        <v>0.30883305370668684</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>2016</v>
-      </c>
-      <c r="B272" s="1">
-        <v>4405650635.4899998</v>
+        <v>2019</v>
       </c>
       <c r="C272" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B273" s="1">
-        <v>1637428985.3299999</v>
+        <v>1008914516.62</v>
       </c>
       <c r="C273" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D273">
-        <v>0.37166564505582589</v>
+        <v>0.17966252029445426</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B274" s="1">
-        <v>631257600.50999999</v>
+        <v>2278269892.9299998</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D274">
-        <v>0.1432836265828398</v>
+        <v>0.35936140517076526</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>2016</v>
+        <v>2020</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1096365388.5999999</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>0.17293447446702204</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -4531,10 +4479,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -4542,496 +4490,51 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>2016</v>
-      </c>
-      <c r="B278" s="1">
-        <v>1223001584.7</v>
+        <v>2020</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D278">
-        <v>0.27759840393335611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>2016</v>
+        <v>2020</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1824876711.4400001</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>0.28784572948163556</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>2016</v>
-      </c>
-      <c r="B280" s="1">
-        <v>913962464.96000004</v>
+        <v>2020</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D280">
-        <v>0.20745232443024808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B281" s="1">
-        <v>4927996722.0600004</v>
+        <v>1140261450</v>
       </c>
       <c r="C281" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>2017</v>
-      </c>
-      <c r="B282" s="1">
-        <v>1866641838.29</v>
-      </c>
-      <c r="C282" t="s">
-        <v>4</v>
-      </c>
-      <c r="D282">
-        <v>0.37878309251587866</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>2017</v>
-      </c>
-      <c r="B283" s="1">
-        <v>639005336.25999999</v>
-      </c>
-      <c r="C283" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283">
-        <v>0.12966837688822225</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>2017</v>
-      </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>2017</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>2017</v>
-      </c>
-      <c r="C286" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>2017</v>
-      </c>
-      <c r="B287" s="1">
-        <v>1354399795.51</v>
-      </c>
-      <c r="C287" t="s">
-        <v>9</v>
-      </c>
-      <c r="D287">
-        <v>0.27483780365499799</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>2017</v>
-      </c>
-      <c r="C288" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>2017</v>
-      </c>
-      <c r="B289" s="1">
-        <v>1067949752</v>
-      </c>
-      <c r="C289" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289">
-        <v>0.21671072694090102</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>2018</v>
-      </c>
-      <c r="B290" s="1">
-        <v>5210477570.46</v>
-      </c>
-      <c r="C290" t="s">
-        <v>3</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>2018</v>
-      </c>
-      <c r="B291" s="1">
-        <v>2069973644.25</v>
-      </c>
-      <c r="C291" t="s">
-        <v>4</v>
-      </c>
-      <c r="D291">
-        <v>0.39727138563754633</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>2018</v>
-      </c>
-      <c r="B292" s="1">
-        <v>706858075.62</v>
-      </c>
-      <c r="C292" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292">
-        <v>0.1356608998045444</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>2018</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>2018</v>
-      </c>
-      <c r="C294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>2018</v>
-      </c>
-      <c r="C295" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>2018</v>
-      </c>
-      <c r="B296" s="1">
-        <v>1470772205.5899999</v>
-      </c>
-      <c r="C296" t="s">
-        <v>9</v>
-      </c>
-      <c r="D296">
-        <v>0.28227205389546561</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>2018</v>
-      </c>
-      <c r="C297" t="s">
-        <v>10</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>2018</v>
-      </c>
-      <c r="B298" s="1">
-        <v>962873645</v>
-      </c>
-      <c r="C298" t="s">
-        <v>11</v>
-      </c>
-      <c r="D298">
-        <v>0.18479566066244366</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>2019</v>
-      </c>
-      <c r="B299" s="1">
-        <v>5615609282.1499996</v>
-      </c>
-      <c r="C299" t="s">
-        <v>3</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>2019</v>
-      </c>
-      <c r="B300" s="1">
-        <v>2087013220.28</v>
-      </c>
-      <c r="C300" t="s">
-        <v>4</v>
-      </c>
-      <c r="D300">
-        <v>0.37164501934168814</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>2019</v>
-      </c>
-      <c r="B301" s="1">
-        <v>785395782.22000003</v>
-      </c>
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-      <c r="D301">
-        <v>0.13985940665717084</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>2019</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>2019</v>
-      </c>
-      <c r="C303" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>2019</v>
-      </c>
-      <c r="C304" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>2019</v>
-      </c>
-      <c r="B305" s="1">
-        <v>1734285763.03</v>
-      </c>
-      <c r="C305" t="s">
-        <v>9</v>
-      </c>
-      <c r="D305">
-        <v>0.30883305370668684</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>2019</v>
-      </c>
-      <c r="C306" t="s">
-        <v>10</v>
-      </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307">
-        <v>2019</v>
-      </c>
-      <c r="B307" s="1">
-        <v>1008914516.62</v>
-      </c>
-      <c r="C307" t="s">
-        <v>11</v>
-      </c>
-      <c r="D307">
-        <v>0.17966252029445426</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>2020</v>
-      </c>
-      <c r="B308" s="1">
-        <v>6339773442.9700003</v>
-      </c>
-      <c r="C308" t="s">
-        <v>3</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>2020</v>
-      </c>
-      <c r="B309" s="1">
-        <v>2278269892.9299998</v>
-      </c>
-      <c r="C309" t="s">
-        <v>4</v>
-      </c>
-      <c r="D309">
-        <v>0.35936140517076526</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>2020</v>
-      </c>
-      <c r="B310" s="1">
-        <v>1096365388.5999999</v>
-      </c>
-      <c r="C310" t="s">
-        <v>5</v>
-      </c>
-      <c r="D310">
-        <v>0.17293447446702204</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>2020</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>2020</v>
-      </c>
-      <c r="C312" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>2020</v>
-      </c>
-      <c r="C313" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>2020</v>
-      </c>
-      <c r="B314" s="1">
-        <v>1824876711.4400001</v>
-      </c>
-      <c r="C314" t="s">
-        <v>9</v>
-      </c>
-      <c r="D314">
-        <v>0.28784572948163556</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>2020</v>
-      </c>
-      <c r="C315" t="s">
-        <v>10</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>2020</v>
-      </c>
-      <c r="B316" s="1">
-        <v>1140261450</v>
-      </c>
-      <c r="C316" t="s">
-        <v>11</v>
-      </c>
-      <c r="D316">
         <v>0.17985839088057703</v>
       </c>
     </row>

--- a/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
+++ b/Tarea 4/Datos/Ejercicio 3_captaciones2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 4/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="14_{255BE587-F669-4057-AAA8-27108874ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2D99FE7A-77C6-480E-BBCA-3EFFAE8EA923}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{485B8084-CF24-4E47-89F3-C5BDA22F13AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 3_captaciones2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,6 +29,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
   <si>
     <t>B</t>
@@ -63,16 +55,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>percentage</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,10 +930,10 @@
         <v>1698097</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>0.14935960669124479</v>
+        <v>0.14935960700000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>3.7918725044935056E-2</v>
+        <v>3.7918725E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>1.1150051652778981E-2</v>
+        <v>1.1150052000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.41786047108917657</v>
+        <v>0.41786047100000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.38371114552186458</v>
+        <v>0.383711146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,10 +1033,10 @@
         <v>3220469</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>0.12141532459750366</v>
+        <v>0.121415325</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>2.771576046405267E-2</v>
+        <v>2.7715759999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>5.0482568825394487E-3</v>
+        <v>5.0482569999999996E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>0.44073444367437792</v>
+        <v>0.440734444</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>0.40508621438152631</v>
+        <v>0.405086214</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,10 +1136,10 @@
         <v>6433444</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>0.12508043246340547</v>
+        <v>0.12508043199999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>2.3423150426632296E-2</v>
+        <v>2.342315E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>2.309502408268885E-3</v>
+        <v>2.3095020000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>5.8245974255079123E-2</v>
+        <v>5.8245973999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>0.79094094044661423</v>
+        <v>0.79094094000000004</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,10 +1239,10 @@
         <v>6948241</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>7.7002920224483434E-2</v>
+        <v>7.7002920000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1289,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>1.3634119861106091E-2</v>
+        <v>1.363412E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1303,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>7.3419538296840925E-4</v>
+        <v>7.3419499999999999E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2.482770418436954E-3</v>
+        <v>2.48277E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1331,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>0.20638789768861165</v>
+        <v>0.20638789799999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1345,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>0.69975809642439346</v>
+        <v>0.69975809600000005</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,10 +1345,10 @@
         <v>12566921</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>8.0843401076180585E-2</v>
+        <v>8.0843400999999995E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>9.1821298896902961E-3</v>
+        <v>9.1821300000000002E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>4.2870366505190494E-4</v>
+        <v>4.2870400000000002E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>6.7550692595309695E-4</v>
+        <v>6.75507E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <v>0.42589224364415346</v>
+        <v>0.42589224399999998</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>0.48297801479897068</v>
+        <v>0.48297801499999998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1462,10 +1451,10 @@
         <v>24698833</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>0.11041060344489849</v>
+        <v>0.110410603</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>8.2230103458103693E-3</v>
+        <v>8.2230099999999993E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="D46">
-        <v>3.1009411415372208E-4</v>
+        <v>3.1009400000000002E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>4.1903876653852411E-3</v>
+        <v>4.1903879999999998E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>0.53309279701368384</v>
+        <v>0.53309279700000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1557,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>0.34377310741606831</v>
+        <v>0.34377310700000002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,10 +1557,10 @@
         <v>71474147</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>0.25406711925906456</v>
+        <v>0.25406711900000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>7.1121904579099851E-3</v>
+        <v>7.11219E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="D54">
-        <v>6.9632301678891645E-2</v>
+        <v>6.9632301999999993E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="D55">
-        <v>1.1685645135266114E-2</v>
+        <v>1.1685645E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>0.38414144271415157</v>
+        <v>0.38414144300000003</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>0.27336130075471615</v>
+        <v>0.273361301</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1663,10 @@
         <v>86918082</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>0.26692212197438886</v>
+        <v>0.26692212199999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>5.6870468609476138E-3</v>
+        <v>5.6870469999999998E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="D62">
-        <v>4.075672899891275E-2</v>
+        <v>4.0756728999999998E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="D63">
-        <v>5.4487196387313003E-2</v>
+        <v>5.4487196000000002E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>0.43629558312111733</v>
+        <v>0.43629558299999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>0.19585132265732044</v>
+        <v>0.19585132299999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,10 +1769,10 @@
         <v>92181142</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>0.24912735899545224</v>
+        <v>0.24912735899999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1819,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>5.2426416769238548E-3</v>
+        <v>5.2426419999999996E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1833,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="D70">
-        <v>2.7747906332505779E-2</v>
+        <v>2.7747905999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1847,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>6.0496610832911982E-2</v>
+        <v>6.0496610999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1861,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>0.44590993550002861</v>
+        <v>0.44590993600000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1875,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>0.21147554666217758</v>
+        <v>0.21147554700000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,10 +1875,10 @@
         <v>68052758</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>0.13786073433028245</v>
+        <v>0.13786073400000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>3.0405780991352889E-3</v>
+        <v>3.0405779999999999E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="D78">
-        <v>1.3510699825270778E-2</v>
+        <v>1.35107E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <v>7.1672598769814702E-2</v>
+        <v>7.1672599000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="D80">
-        <v>0.54137978505775353</v>
+        <v>0.54137978499999995</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>0.23253560391774322</v>
+        <v>0.23253560400000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,10 +1981,10 @@
         <v>101296923</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>0.15066639980600718</v>
+        <v>0.15066640000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>2.2169679879698698E-3</v>
+        <v>2.2169680000000002E-3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2045,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>1.3849575014364946E-2</v>
+        <v>1.3849574999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>6.0980249219938949E-2</v>
+        <v>6.0980249E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="D88">
-        <v>0.47720639130932424</v>
+        <v>0.47720639100000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>0.29508041666239482</v>
+        <v>0.29508041699999998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,10 +2087,10 @@
         <v>170504288</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>0.18352984012404042</v>
+        <v>0.18352984</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2137,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>1.7103022447752753E-3</v>
+        <v>1.7103019999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>1.0409442020391372E-2</v>
+        <v>1.0409442E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2165,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>6.5476302972206829E-2</v>
+        <v>6.5476303E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2179,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>0.42334045991739883</v>
+        <v>0.42334045999999997</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2182,7 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>0.31553365272118727</v>
+        <v>0.31553365300000003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,10 +2193,10 @@
         <v>208962906</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>0.19111369247585522</v>
+        <v>0.191113692</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>1.1632896488957202E-3</v>
+        <v>1.16329E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <v>3.7596422563860145E-3</v>
+        <v>3.7596420000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="D103">
-        <v>8.3476187825732115E-2</v>
+        <v>8.3476188000000007E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <v>0.42245685131989341</v>
+        <v>0.42245685100000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="D105">
-        <v>0.29803033647323751</v>
+        <v>0.29803033600000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,10 +2299,10 @@
         <v>234115180</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>0.16916713440767109</v>
+        <v>0.169167134</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2349,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>8.5506454629319113E-4</v>
+        <v>8.5506500000000001E-4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2363,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>3.5195718582733022E-3</v>
+        <v>3.5195719999999999E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>8.3251914373781932E-2</v>
+        <v>8.3251913999999996E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>0.42966140878145165</v>
+        <v>0.42966140899999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2405,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>0.31354490603252883</v>
+        <v>0.31354490600000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,10 +2405,10 @@
         <v>289186162</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>0.1763119680478698</v>
+        <v>0.17631196800000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>8.1069098118708772E-4</v>
+        <v>8.1069099999999999E-4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>2.9211535553243691E-3</v>
+        <v>2.921154E-3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>7.258198981284962E-2</v>
+        <v>7.2581989999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2497,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="D120">
-        <v>0.35482715283582128</v>
+        <v>0.35482715300000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2511,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>0.39254704476694785</v>
+        <v>0.39254704499999998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,10 +2511,10 @@
         <v>326409070</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>0.17720070235108071</v>
+        <v>0.17720070199999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>7.7524510264038321E-4</v>
+        <v>7.7524500000000004E-4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="D126">
-        <v>2.3491214590960537E-3</v>
+        <v>2.349121E-3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="D127">
-        <v>3.4156332625878465E-2</v>
+        <v>3.4156332999999997E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="D128">
-        <v>0.33923539229000971</v>
+        <v>0.33923539200000002</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="D129">
-        <v>0.44628320617129463</v>
+        <v>0.44628320599999999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2628,10 +2617,10 @@
         <v>395903100</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>0.19253130455473921</v>
+        <v>0.19253130500000001</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2667,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>7.2679244586917771E-4</v>
+        <v>7.2679199999999998E-4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>1.3124278219334771E-3</v>
+        <v>1.312428E-3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2695,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="D135">
-        <v>1.5512655334671784E-2</v>
+        <v>1.5512655E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2709,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="D136">
-        <v>0.28258943339031245</v>
+        <v>0.282589433</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2723,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="D137">
-        <v>0.50732738645247388</v>
+        <v>0.50732738600000005</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2734,10 +2723,10 @@
         <v>453499837</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>0.2739466815926162</v>
+        <v>0.273946682</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2773,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>1.7947688233165284E-3</v>
+        <v>1.7947690000000001E-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2787,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="D142">
-        <v>1.7410529037510266E-3</v>
+        <v>1.741053E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>3.0166356752516808E-2</v>
+        <v>3.0166357000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2815,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>0.34109781265915851</v>
+        <v>0.34109781300000003</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="D145">
-        <v>0.35125332726864095</v>
+        <v>0.351253327</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2840,10 +2829,10 @@
         <v>422727174</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>0.21591832699761723</v>
+        <v>0.21591832699999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="D148">
-        <v>6.2054331714139023E-2</v>
+        <v>6.2054331999999997E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2882,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>3.0092401244819333E-3</v>
+        <v>3.0092399999999998E-3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2907,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D151">
-        <v>0.33591368432159452</v>
+        <v>0.33591368399999999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2932,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="D153">
-        <v>0.38310441684216728</v>
+        <v>0.38310441699999997</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2943,10 +2932,10 @@
         <v>470005261</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>0.22729646502329043</v>
+        <v>0.227296465</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2971,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="D156">
-        <v>6.8339583485747202E-2</v>
+        <v>6.8339582999999995E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2985,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>9.3350096869332171E-4</v>
+        <v>9.3350099999999999E-4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3010,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <v>0.31607821378029516</v>
+        <v>0.31607821400000002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3035,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>0.38735223674197389</v>
+        <v>0.38735223699999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3046,10 +3035,10 @@
         <v>565113627</v>
       </c>
       <c r="C162" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>0.25192018016290552</v>
+        <v>0.25192017999999999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3063,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <v>7.3370909104610138E-2</v>
+        <v>7.3370908999999998E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3110,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="D167">
-        <v>0.29537256692855823</v>
+        <v>0.29537256699999997</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="D169">
-        <v>0.37933634380392611</v>
+        <v>0.37933634399999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,10 +3135,10 @@
         <v>617414591</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>0.24742681264301111</v>
+        <v>0.247426813</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="D171">
-        <v>7.4872077960853795E-2</v>
+        <v>7.4872077999999995E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3210,7 +3199,7 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>0.26481940405308652</v>
+        <v>0.26481940399999998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="D177">
-        <v>0.41288170534304858</v>
+        <v>0.41288170499999999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3246,10 +3235,10 @@
         <v>694725908</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>0.24494640262257669</v>
+        <v>0.24494640300000001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="D179">
-        <v>6.8678809934519941E-2</v>
+        <v>6.8678810000000007E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,7 +3299,7 @@
         <v>8</v>
       </c>
       <c r="D183">
-        <v>0.29773254236696806</v>
+        <v>0.29773254199999999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3335,7 +3324,7 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>0.38864224507593531</v>
+        <v>0.388642245</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3346,10 +3335,10 @@
         <v>745939568</v>
       </c>
       <c r="C186" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>0.24347139886124408</v>
+        <v>0.24347139900000001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3363,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="D187">
-        <v>7.3114934916197097E-2</v>
+        <v>7.3114935000000006E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3410,7 +3399,7 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <v>0.29428059827384351</v>
+        <v>0.294280598</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3435,7 +3424,7 @@
         <v>10</v>
       </c>
       <c r="D193">
-        <v>0.38913306794871538</v>
+        <v>0.38913306800000003</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3446,10 +3435,10 @@
         <v>824785442.74000001</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>0.28312123775393166</v>
+        <v>0.283121238</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3463,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>8.7960272368617462E-2</v>
+        <v>8.7960272000000006E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="D199">
-        <v>0.30604953465438117</v>
+        <v>0.30604953499999998</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3535,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="D201">
-        <v>0.3228689552230698</v>
+        <v>0.32286895500000001</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3546,10 +3535,10 @@
         <v>1006176029.86</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D202">
-        <v>0.32550151044248676</v>
+        <v>0.32550150999999999</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3563,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="D203">
-        <v>9.5748868200116105E-2</v>
+        <v>9.5748868000000001E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,7 +3599,7 @@
         <v>8</v>
       </c>
       <c r="D207">
-        <v>0.28741733059623681</v>
+        <v>0.287417331</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,7 +3624,7 @@
         <v>10</v>
       </c>
       <c r="D209">
-        <v>0.29133229076116035</v>
+        <v>0.29133229100000002</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,10 +3635,10 @@
         <v>1172127631.0799999</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D210">
-        <v>0.35576044676522417</v>
+        <v>0.35576044699999998</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="D211">
-        <v>0.10642392460802498</v>
+        <v>0.106423925</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3710,7 +3699,7 @@
         <v>8</v>
       </c>
       <c r="D215">
-        <v>0.27483953349518453</v>
+        <v>0.27483953300000002</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3735,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="D217">
-        <v>0.26297609513156628</v>
+        <v>0.26297609500000002</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,10 +3735,10 @@
         <v>1197413951.3699999</v>
       </c>
       <c r="C218" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D218">
-        <v>0.33335311445409949</v>
+        <v>0.33335311400000001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -3763,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="D219">
-        <v>0.10893964437561698</v>
+        <v>0.108939644</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3810,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="D223">
-        <v>0.26772419442699091</v>
+        <v>0.26772419400000003</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="D225">
-        <v>0.28998304674329251</v>
+        <v>0.28998304699999999</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3846,10 +3835,10 @@
         <v>1366289537.5999999</v>
       </c>
       <c r="C226" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D226">
-        <v>0.34731595869557913</v>
+        <v>0.34731595900000001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -3863,7 +3852,7 @@
         <v>4</v>
       </c>
       <c r="D227">
-        <v>0.10944750189032164</v>
+        <v>0.109447502</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="D231">
-        <v>0.25004374830895593</v>
+        <v>0.25004374800000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3935,7 +3924,7 @@
         <v>10</v>
       </c>
       <c r="D233">
-        <v>0.29319279110514324</v>
+        <v>0.29319279100000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3946,10 +3935,10 @@
         <v>1444789929.6199999</v>
       </c>
       <c r="C234" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D234">
-        <v>0.3461716148961036</v>
+        <v>0.34617161499999999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -3963,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>0.13078845359077246</v>
+        <v>0.130788454</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="D239">
-        <v>0.2621027477531982</v>
+        <v>0.262102748</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4035,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="D241">
-        <v>0.26093718375992575</v>
+        <v>0.26093718399999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,10 +4035,10 @@
         <v>1637428985.3299999</v>
       </c>
       <c r="C242" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D242">
-        <v>0.37166564505498223</v>
+        <v>0.37166564499999999</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4063,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="D243">
-        <v>0.14328362658251456</v>
+        <v>0.143283627</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4110,7 +4099,7 @@
         <v>8</v>
       </c>
       <c r="D247">
-        <v>0.277598403932726</v>
+        <v>0.27759840400000002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4135,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="D249">
-        <v>0.20745232442977718</v>
+        <v>0.20745232399999999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4146,10 +4135,10 @@
         <v>1866641838.29</v>
       </c>
       <c r="C250" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D250">
-        <v>0.37878309251587866</v>
+        <v>0.37878309300000002</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4163,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="D251">
-        <v>0.12966837688822225</v>
+        <v>0.129668377</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4210,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="D255">
-        <v>0.27483780365499799</v>
+        <v>0.27483780400000002</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4235,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="D257">
-        <v>0.21671072694090102</v>
+        <v>0.21671072699999999</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4246,10 +4235,10 @@
         <v>2069973644.25</v>
       </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D258">
-        <v>0.39727138563754633</v>
+        <v>0.397271386</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4263,7 +4252,7 @@
         <v>4</v>
       </c>
       <c r="D259">
-        <v>0.1356608998045444</v>
+        <v>0.1356609</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4310,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="D263">
-        <v>0.28227205389546561</v>
+        <v>0.28227205399999999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="D265">
-        <v>0.18479566066244366</v>
+        <v>0.184795661</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,10 +4335,10 @@
         <v>2087013220.28</v>
       </c>
       <c r="C266" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D266">
-        <v>0.37164501934168814</v>
+        <v>0.37164501900000002</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4363,7 +4352,7 @@
         <v>4</v>
       </c>
       <c r="D267">
-        <v>0.13985940665717084</v>
+        <v>0.13985940699999999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4410,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="D271">
-        <v>0.30883305370668684</v>
+        <v>0.308833054</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="D273">
-        <v>0.17966252029445426</v>
+        <v>0.17966251999999999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -4446,10 +4435,10 @@
         <v>2278269892.9299998</v>
       </c>
       <c r="C274" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D274">
-        <v>0.35936140517076526</v>
+        <v>0.35936140500000002</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -4463,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="D275">
-        <v>0.17293447446702204</v>
+        <v>0.172934474</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -4510,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="D279">
-        <v>0.28784572948163556</v>
+        <v>0.28784572899999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -4535,7 +4524,7 @@
         <v>10</v>
       </c>
       <c r="D281">
-        <v>0.17985839088057703</v>
+        <v>0.17985839100000001</v>
       </c>
     </row>
   </sheetData>
